--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -1086,7 +1086,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A12" sqref="A1:XFD1048576"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44584</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44584</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44584</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1588,7 +1588,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1669,7 +1669,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44584</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>DATE</t>
   </si>
@@ -1085,8 +1085,8 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1172,7 +1172,7 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-290</v>
+        <v>-4520</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>168619</v>
+        <v>164389</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
@@ -1212,11 +1212,15 @@
       <c r="D7" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="16">
+        <v>4230</v>
+      </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>169169</v>
+        <v>164939</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
@@ -1236,7 +1240,7 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>216134</v>
+        <v>211904</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
@@ -1256,7 +1260,7 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>216234</v>
+        <v>212004</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
@@ -1268,7 +1272,7 @@
         <v>44576</v>
       </c>
       <c r="B10" s="13">
-        <v>103375</v>
+        <v>104815</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
@@ -1276,7 +1280,7 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>319609</v>
+        <v>316819</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1296,7 +1300,7 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>319859</v>
+        <v>317069</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1312,7 +1316,7 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>319859</v>
+        <v>317069</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1328,7 +1332,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>319859</v>
+        <v>317069</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1344,7 +1348,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>319859</v>
+        <v>317069</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1360,7 +1364,7 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>319859</v>
+        <v>317069</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1376,7 +1380,7 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>319859</v>
+        <v>317069</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1392,7 +1396,7 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>319859</v>
+        <v>317069</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1408,7 +1412,7 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>319859</v>
+        <v>317069</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1424,7 +1428,7 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>319859</v>
+        <v>317069</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1440,7 +1444,7 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>319859</v>
+        <v>317069</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1456,7 +1460,7 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>319859</v>
+        <v>317069</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
@@ -1472,7 +1476,7 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>319859</v>
+        <v>317069</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1488,7 +1492,7 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>319859</v>
+        <v>317069</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1504,7 +1508,7 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>319859</v>
+        <v>317069</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1520,7 +1524,7 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>319859</v>
+        <v>317069</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1536,7 +1540,7 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>319859</v>
+        <v>317069</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1552,7 +1556,7 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>319859</v>
+        <v>317069</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1568,7 +1572,7 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>319859</v>
+        <v>317069</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1584,7 +1588,7 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>319859</v>
+        <v>317069</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1600,7 +1604,7 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>319859</v>
+        <v>317069</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1616,7 +1620,7 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>319859</v>
+        <v>317069</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1632,7 +1636,7 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>319859</v>
+        <v>317069</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1648,7 +1652,7 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>319859</v>
+        <v>317069</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1665,7 +1669,7 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>319859</v>
+        <v>317069</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
@@ -1690,7 +1694,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>370149</v>
+        <v>371589</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1698,7 +1702,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>50290</v>
+        <v>54520</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1721,7 +1725,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>319859</v>
+        <v>317069</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -1086,7 +1086,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1172,11 +1172,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-4520</v>
+        <v>-68422</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1196,11 +1196,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>164389</v>
+        <v>100487</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1220,11 +1220,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>164939</v>
+        <v>101037</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1236,15 +1236,19 @@
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="52"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
+      <c r="F8" s="15">
+        <v>44599</v>
+      </c>
+      <c r="G8" s="16">
+        <v>63902</v>
+      </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>211904</v>
+        <v>148002</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1260,11 +1264,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>212004</v>
+        <v>148102</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1280,11 +1284,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>316819</v>
+        <v>252917</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1300,11 +1304,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>317069</v>
+        <v>253167</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1316,11 +1320,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>317069</v>
+        <v>253167</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1332,11 +1336,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>317069</v>
+        <v>253167</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1348,11 +1352,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>317069</v>
+        <v>253167</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1364,11 +1368,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>317069</v>
+        <v>253167</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1380,11 +1384,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>317069</v>
+        <v>253167</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1396,11 +1400,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>317069</v>
+        <v>253167</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1412,11 +1416,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>317069</v>
+        <v>253167</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1428,11 +1432,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>317069</v>
+        <v>253167</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1444,11 +1448,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>317069</v>
+        <v>253167</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1460,11 +1464,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>317069</v>
+        <v>253167</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1476,11 +1480,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>317069</v>
+        <v>253167</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1492,11 +1496,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>317069</v>
+        <v>253167</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1508,11 +1512,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>317069</v>
+        <v>253167</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1524,11 +1528,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>317069</v>
+        <v>253167</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1540,11 +1544,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>317069</v>
+        <v>253167</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1556,11 +1560,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>317069</v>
+        <v>253167</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1572,11 +1576,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>317069</v>
+        <v>253167</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1588,11 +1592,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>317069</v>
+        <v>253167</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1604,11 +1608,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>317069</v>
+        <v>253167</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1620,11 +1624,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>317069</v>
+        <v>253167</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1636,11 +1640,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>317069</v>
+        <v>253167</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1652,11 +1656,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>317069</v>
+        <v>253167</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1669,11 +1673,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>317069</v>
+        <v>253167</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1702,7 +1706,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>54520</v>
+        <v>118422</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1725,7 +1729,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>317069</v>
+        <v>253167</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>DATE</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>GS</t>
+  </si>
+  <si>
+    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1089,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1176,7 +1179,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1200,7 +1203,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1224,7 +1227,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1248,7 +1251,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1268,7 +1271,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1288,7 +1291,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1308,39 +1311,47 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="53"/>
-      <c r="B12" s="17"/>
+      <c r="A12" s="53">
+        <v>44602</v>
+      </c>
+      <c r="B12" s="17">
+        <v>71793</v>
+      </c>
       <c r="C12" s="14"/>
       <c r="D12" s="18"/>
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>253167</v>
+        <v>324960</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A13" s="53"/>
-      <c r="B13" s="13"/>
+      <c r="B13" s="13">
+        <v>200</v>
+      </c>
       <c r="C13" s="14"/>
-      <c r="D13" s="18"/>
+      <c r="D13" s="18" t="s">
+        <v>15</v>
+      </c>
       <c r="F13" s="12"/>
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>253167</v>
+        <v>325160</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1352,11 +1363,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>253167</v>
+        <v>325160</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1368,11 +1379,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>253167</v>
+        <v>325160</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1384,11 +1395,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>253167</v>
+        <v>325160</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1400,11 +1411,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>253167</v>
+        <v>325160</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1416,11 +1427,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>253167</v>
+        <v>325160</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1432,11 +1443,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>253167</v>
+        <v>325160</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1448,11 +1459,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>253167</v>
+        <v>325160</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1464,11 +1475,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>253167</v>
+        <v>325160</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1480,11 +1491,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>253167</v>
+        <v>325160</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1496,11 +1507,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>253167</v>
+        <v>325160</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1512,11 +1523,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>253167</v>
+        <v>325160</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1528,11 +1539,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>253167</v>
+        <v>325160</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1544,11 +1555,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>253167</v>
+        <v>325160</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1560,11 +1571,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>253167</v>
+        <v>325160</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1576,11 +1587,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>253167</v>
+        <v>325160</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1592,11 +1603,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>253167</v>
+        <v>325160</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1608,11 +1619,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>253167</v>
+        <v>325160</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1624,11 +1635,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>253167</v>
+        <v>325160</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1640,11 +1651,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>253167</v>
+        <v>325160</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1656,11 +1667,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>253167</v>
+        <v>325160</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1673,11 +1684,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>253167</v>
+        <v>325160</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1698,7 +1709,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>371589</v>
+        <v>443582</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1729,7 +1740,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>253167</v>
+        <v>325160</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -1088,8 +1088,8 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection sqref="A1:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44609</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44609</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1415,7 +1415,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44609</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1655,7 +1655,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44609</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -1088,8 +1088,8 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection sqref="A1:I38"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1175,11 +1175,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-68422</v>
+        <v>-293582</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1199,11 +1199,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>100487</v>
+        <v>-124673</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1223,11 +1223,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>101037</v>
+        <v>-124123</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44613</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1247,11 +1247,11 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>148002</v>
+        <v>-77158</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1263,15 +1263,19 @@
       <c r="D9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
+      <c r="F9" s="15">
+        <v>44613</v>
+      </c>
+      <c r="G9" s="16">
+        <v>18323</v>
+      </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>148102</v>
+        <v>-77058</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44613</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1283,15 +1287,19 @@
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
+      <c r="F10" s="15">
+        <v>44614</v>
+      </c>
+      <c r="G10" s="16">
+        <v>200000</v>
+      </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>252917</v>
+        <v>27757</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1303,15 +1311,19 @@
       <c r="D11" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
+      <c r="F11" s="15">
+        <v>44616</v>
+      </c>
+      <c r="G11" s="16">
+        <v>6837</v>
+      </c>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>253167</v>
+        <v>28007</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44613</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1327,11 +1339,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>324960</v>
+        <v>99800</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1347,11 +1359,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>325160</v>
+        <v>100000</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44613</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1363,11 +1375,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>325160</v>
+        <v>100000</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44613</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1379,11 +1391,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>325160</v>
+        <v>100000</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44613</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1395,11 +1407,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>325160</v>
+        <v>100000</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44613</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1411,11 +1423,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>325160</v>
+        <v>100000</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44613</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1427,11 +1439,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>325160</v>
+        <v>100000</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44613</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1443,11 +1455,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>325160</v>
+        <v>100000</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44613</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1459,11 +1471,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>325160</v>
+        <v>100000</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44613</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1475,11 +1487,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>325160</v>
+        <v>100000</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44613</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1491,11 +1503,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>325160</v>
+        <v>100000</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44613</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1507,11 +1519,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>325160</v>
+        <v>100000</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44613</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1523,11 +1535,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>325160</v>
+        <v>100000</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44613</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1539,11 +1551,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>325160</v>
+        <v>100000</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44613</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1555,11 +1567,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>325160</v>
+        <v>100000</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44613</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1571,11 +1583,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>325160</v>
+        <v>100000</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44613</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1587,11 +1599,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>325160</v>
+        <v>100000</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44613</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1603,11 +1615,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>325160</v>
+        <v>100000</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44613</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,11 +1631,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>325160</v>
+        <v>100000</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44613</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1635,11 +1647,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>325160</v>
+        <v>100000</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44613</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1651,11 +1663,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>325160</v>
+        <v>100000</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44613</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1667,11 +1679,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>325160</v>
+        <v>100000</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44613</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1684,11 +1696,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>325160</v>
+        <v>100000</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44613</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1717,7 +1729,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>118422</v>
+        <v>343582</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1740,7 +1752,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>325160</v>
+        <v>100000</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>DATE</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>insurance</t>
+  </si>
+  <si>
+    <t>0-</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1092,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1179,7 +1182,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1203,7 +1206,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1227,7 +1230,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44618</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1251,7 +1254,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1275,7 +1278,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44618</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1299,7 +1302,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1323,7 +1326,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1343,7 +1346,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1363,23 +1366,27 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="53"/>
-      <c r="B14" s="17"/>
+      <c r="A14" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="17">
+        <v>12494</v>
+      </c>
       <c r="C14" s="14"/>
       <c r="D14" s="18"/>
       <c r="F14" s="15"/>
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>100000</v>
-      </c>
-      <c r="I14" s="11">
+        <v>112494</v>
+      </c>
+      <c r="I14" s="11" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1391,11 +1398,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>112494</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1407,11 +1414,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>112494</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1423,11 +1430,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>112494</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1439,11 +1446,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>112494</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1455,11 +1462,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>112494</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1471,11 +1478,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>112494</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1487,11 +1494,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>112494</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44618</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1503,11 +1510,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>112494</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1519,11 +1526,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>112494</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1535,11 +1542,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>112494</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1551,11 +1558,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>112494</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1567,11 +1574,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>112494</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1583,11 +1590,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>112494</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1599,11 +1606,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>112494</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1615,11 +1622,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>112494</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1631,11 +1638,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>112494</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1647,11 +1654,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>112494</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1663,11 +1670,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>112494</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1679,11 +1686,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>100000</v>
+        <v>112494</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1696,11 +1703,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>112494</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44618</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1721,7 +1728,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>443582</v>
+        <v>456076</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1752,7 +1759,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>100000</v>
+        <v>112494</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>DATE</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>insurance</t>
-  </si>
-  <si>
-    <t>0-</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1089,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1370,8 +1367,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="53" t="s">
-        <v>16</v>
+      <c r="A14" s="53">
+        <v>44644</v>
       </c>
       <c r="B14" s="17">
         <v>12494</v>
@@ -1384,25 +1381,31 @@
         <f t="shared" si="0"/>
         <v>112494</v>
       </c>
-      <c r="I14" s="11" t="e">
+      <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>#VALUE!</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="53"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="19"/>
+      <c r="A15" s="53">
+        <v>44644</v>
+      </c>
+      <c r="B15" s="17">
+        <v>73032</v>
+      </c>
+      <c r="C15" s="19">
+        <v>200</v>
+      </c>
       <c r="D15" s="18"/>
       <c r="F15" s="15"/>
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>112494</v>
+        <v>185726</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1414,7 +1417,7 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>112494</v>
+        <v>185726</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1430,7 +1433,7 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>112494</v>
+        <v>185726</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1446,7 +1449,7 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>112494</v>
+        <v>185726</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1462,7 +1465,7 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>112494</v>
+        <v>185726</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1478,7 +1481,7 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>112494</v>
+        <v>185726</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1494,7 +1497,7 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>112494</v>
+        <v>185726</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
@@ -1510,7 +1513,7 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>112494</v>
+        <v>185726</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1526,7 +1529,7 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>112494</v>
+        <v>185726</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1542,7 +1545,7 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>112494</v>
+        <v>185726</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1558,7 +1561,7 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>112494</v>
+        <v>185726</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1574,7 +1577,7 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>112494</v>
+        <v>185726</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1590,7 +1593,7 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>112494</v>
+        <v>185726</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1606,7 +1609,7 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>112494</v>
+        <v>185726</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1622,7 +1625,7 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>112494</v>
+        <v>185726</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1638,7 +1641,7 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>112494</v>
+        <v>185726</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1654,7 +1657,7 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>112494</v>
+        <v>185726</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1670,7 +1673,7 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>112494</v>
+        <v>185726</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1686,7 +1689,7 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>112494</v>
+        <v>185726</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1703,7 +1706,7 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>112494</v>
+        <v>185726</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
@@ -1728,7 +1731,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>456076</v>
+        <v>529308</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1759,7 +1762,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>112494</v>
+        <v>185726</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -1089,7 +1089,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44622</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44622</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>-22</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,18 +1394,18 @@
         <v>73032</v>
       </c>
       <c r="C15" s="19">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D15" s="18"/>
       <c r="F15" s="15"/>
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>185726</v>
+        <v>185776</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>-22</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1417,11 +1417,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>185726</v>
+        <v>185776</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1433,11 +1433,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>185726</v>
+        <v>185776</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1449,11 +1449,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>185726</v>
+        <v>185776</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1465,11 +1465,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>185726</v>
+        <v>185776</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1481,11 +1481,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>185726</v>
+        <v>185776</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1497,11 +1497,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>185726</v>
+        <v>185776</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44622</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1513,11 +1513,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>185726</v>
+        <v>185776</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1529,11 +1529,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>185726</v>
+        <v>185776</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1545,11 +1545,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>185726</v>
+        <v>185776</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1561,11 +1561,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>185726</v>
+        <v>185776</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1577,11 +1577,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>185726</v>
+        <v>185776</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1593,11 +1593,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>185726</v>
+        <v>185776</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1609,11 +1609,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>185726</v>
+        <v>185776</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1625,11 +1625,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>185726</v>
+        <v>185776</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1641,11 +1641,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>185726</v>
+        <v>185776</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1657,11 +1657,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>185726</v>
+        <v>185776</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1673,11 +1673,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>185726</v>
+        <v>185776</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1689,11 +1689,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>185726</v>
+        <v>185776</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44622</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1706,11 +1706,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>185726</v>
+        <v>185776</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44622</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1731,7 +1731,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>529308</v>
+        <v>529358</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1762,7 +1762,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>185726</v>
+        <v>185776</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -1089,7 +1089,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1175,11 +1175,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-293582</v>
+        <v>-393582</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1199,11 +1199,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-124673</v>
+        <v>-224673</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1223,11 +1223,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-124123</v>
+        <v>-224123</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1247,11 +1247,11 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-77158</v>
+        <v>-177158</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1271,11 +1271,11 @@
       </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>-77058</v>
+        <v>-177058</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1295,11 +1295,11 @@
       </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>27757</v>
+        <v>-72243</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1319,11 +1319,11 @@
       </c>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>28007</v>
+        <v>-71993</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1335,15 +1335,19 @@
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="18"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
+      <c r="F12" s="15">
+        <v>44644</v>
+      </c>
+      <c r="G12" s="16">
+        <v>100000</v>
+      </c>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>99800</v>
+        <v>-200</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1359,16 +1363,16 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="53">
-        <v>44644</v>
+        <v>44616</v>
       </c>
       <c r="B14" s="17">
         <v>12494</v>
@@ -1379,49 +1383,55 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>112494</v>
+        <v>12494</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>-10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="53">
-        <v>44644</v>
+        <v>44616</v>
       </c>
       <c r="B15" s="17">
         <v>73032</v>
       </c>
       <c r="C15" s="19">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="D15" s="18"/>
       <c r="F15" s="15"/>
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>185776</v>
+        <v>85726</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>-10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="53"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="14"/>
+      <c r="A16" s="53">
+        <v>44625</v>
+      </c>
+      <c r="B16" s="17">
+        <v>166815</v>
+      </c>
+      <c r="C16" s="14">
+        <v>400</v>
+      </c>
       <c r="D16" s="18"/>
       <c r="F16" s="15"/>
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>185776</v>
+        <v>252941</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1433,11 +1443,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>185776</v>
+        <v>252941</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1449,11 +1459,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>185776</v>
+        <v>252941</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1465,11 +1475,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>185776</v>
+        <v>252941</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1481,11 +1491,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>185776</v>
+        <v>252941</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1497,11 +1507,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>185776</v>
+        <v>252941</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1513,11 +1523,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>185776</v>
+        <v>252941</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1529,11 +1539,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>185776</v>
+        <v>252941</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1545,11 +1555,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>185776</v>
+        <v>252941</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1561,11 +1571,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>185776</v>
+        <v>252941</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1577,11 +1587,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>185776</v>
+        <v>252941</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1593,11 +1603,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>185776</v>
+        <v>252941</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1609,11 +1619,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>185776</v>
+        <v>252941</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1625,11 +1635,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>185776</v>
+        <v>252941</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1641,11 +1651,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>185776</v>
+        <v>252941</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1657,11 +1667,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>185776</v>
+        <v>252941</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1673,11 +1683,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>185776</v>
+        <v>252941</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1689,11 +1699,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>185776</v>
+        <v>252941</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1706,11 +1716,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>185776</v>
+        <v>252941</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44634</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1731,7 +1741,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>529358</v>
+        <v>696523</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1739,7 +1749,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>343582</v>
+        <v>443582</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1762,7 +1772,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>185776</v>
+        <v>252941</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -1089,7 +1089,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1175,11 +1175,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-393582</v>
+        <v>-453771</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>98</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1199,11 +1199,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-224673</v>
+        <v>-284862</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>98</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1223,11 +1223,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-224123</v>
+        <v>-284312</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44645</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1247,11 +1247,11 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-177158</v>
+        <v>-237347</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>98</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1271,11 +1271,11 @@
       </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>-177058</v>
+        <v>-237247</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44645</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1295,11 +1295,11 @@
       </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>-72243</v>
+        <v>-132432</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1319,11 +1319,11 @@
       </c>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>-71993</v>
+        <v>-132182</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1343,11 +1343,11 @@
       </c>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>-200</v>
+        <v>-60389</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1359,15 +1359,19 @@
       <c r="D13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="13"/>
+      <c r="F13" s="12">
+        <v>44670</v>
+      </c>
+      <c r="G13" s="13">
+        <v>60189</v>
+      </c>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-60189</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1383,11 +1387,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>12494</v>
+        <v>-47695</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1405,11 +1409,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>85726</v>
+        <v>25537</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1427,11 +1431,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>252941</v>
+        <v>192752</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1443,11 +1447,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>252941</v>
+        <v>192752</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1459,11 +1463,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>252941</v>
+        <v>192752</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1475,11 +1479,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>252941</v>
+        <v>192752</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1491,11 +1495,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>252941</v>
+        <v>192752</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1507,11 +1511,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>252941</v>
+        <v>192752</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44645</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1523,11 +1527,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>252941</v>
+        <v>192752</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1539,11 +1543,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>252941</v>
+        <v>192752</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1555,11 +1559,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>252941</v>
+        <v>192752</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1571,11 +1575,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>252941</v>
+        <v>192752</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1587,11 +1591,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>252941</v>
+        <v>192752</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1603,11 +1607,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>252941</v>
+        <v>192752</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,11 +1623,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>252941</v>
+        <v>192752</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1635,11 +1639,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>252941</v>
+        <v>192752</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1651,11 +1655,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>252941</v>
+        <v>192752</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1667,11 +1671,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>252941</v>
+        <v>192752</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1683,11 +1687,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>252941</v>
+        <v>192752</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1699,11 +1703,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>252941</v>
+        <v>192752</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44645</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1716,11 +1720,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>252941</v>
+        <v>192752</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44645</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1749,7 +1753,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>443582</v>
+        <v>503771</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1772,7 +1776,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>252941</v>
+        <v>192752</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>DATE</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>insurance</t>
+  </si>
+  <si>
+    <t>CALCULATION M</t>
+  </si>
+  <si>
+    <t>ADUSTED</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1095,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1175,11 +1181,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-453771</v>
+        <v>-548105</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>123</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1199,11 +1205,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-284862</v>
+        <v>-379196</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>123</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1223,11 +1229,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-284312</v>
+        <v>-378646</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44670</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1247,11 +1253,11 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-237347</v>
+        <v>-331681</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>123</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1271,11 +1277,11 @@
       </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>-237247</v>
+        <v>-331581</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44670</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1295,11 +1301,11 @@
       </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>-132432</v>
+        <v>-226766</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1319,11 +1325,11 @@
       </c>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>-132182</v>
+        <v>-226516</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1343,11 +1349,11 @@
       </c>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>-60389</v>
+        <v>-154723</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1367,11 +1373,11 @@
       </c>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>-60189</v>
+        <v>-154523</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1383,15 +1389,19 @@
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="18"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
+      <c r="F14" s="15">
+        <v>44678</v>
+      </c>
+      <c r="G14" s="16">
+        <v>94334</v>
+      </c>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>-47695</v>
+        <v>-142029</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1409,11 +1419,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>25537</v>
+        <v>-68797</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1431,59 +1441,71 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>192752</v>
+        <v>98418</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A17" s="53"/>
-      <c r="B17" s="13"/>
+      <c r="B17" s="13">
+        <v>1392</v>
+      </c>
       <c r="C17" s="14"/>
-      <c r="D17" s="18"/>
+      <c r="D17" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="F17" s="15"/>
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>192752</v>
+        <v>99810</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A18" s="53"/>
-      <c r="B18" s="13"/>
+      <c r="B18" s="13">
+        <v>190</v>
+      </c>
       <c r="C18" s="14"/>
-      <c r="D18" s="18"/>
+      <c r="D18" s="18" t="s">
+        <v>17</v>
+      </c>
       <c r="F18" s="15"/>
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>192752</v>
+        <v>100000</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="53"/>
-      <c r="B19" s="13"/>
+      <c r="A19" s="53">
+        <v>44678</v>
+      </c>
+      <c r="B19" s="13">
+        <v>63878</v>
+      </c>
       <c r="C19" s="14"/>
       <c r="D19" s="18"/>
       <c r="F19" s="15"/>
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>192752</v>
+        <v>163878</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1495,11 +1517,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>192752</v>
+        <v>163878</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1511,11 +1533,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>192752</v>
+        <v>163878</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44670</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1527,11 +1549,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>192752</v>
+        <v>163878</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1543,11 +1565,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>192752</v>
+        <v>163878</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1559,11 +1581,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>192752</v>
+        <v>163878</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1575,11 +1597,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>192752</v>
+        <v>163878</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1591,11 +1613,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>192752</v>
+        <v>163878</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1607,11 +1629,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>192752</v>
+        <v>163878</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1623,11 +1645,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>192752</v>
+        <v>163878</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1639,11 +1661,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>192752</v>
+        <v>163878</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1655,11 +1677,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>192752</v>
+        <v>163878</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1671,11 +1693,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>192752</v>
+        <v>163878</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1687,11 +1709,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>192752</v>
+        <v>163878</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1703,11 +1725,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>192752</v>
+        <v>163878</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44670</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1720,11 +1742,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>192752</v>
+        <v>163878</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44670</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1745,7 +1767,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>696523</v>
+        <v>761983</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1753,7 +1775,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>503771</v>
+        <v>598105</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1776,7 +1798,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>192752</v>
+        <v>163878</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>DATE</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>ADUSTED</t>
+  </si>
+  <si>
+    <t>toy kingdom</t>
   </si>
 </sst>
 </file>
@@ -1094,8 +1097,8 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1181,11 +1184,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-548105</v>
+        <v>-598105</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>138</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1205,11 +1208,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-379196</v>
+        <v>-429196</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>138</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1229,11 +1232,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-378646</v>
+        <v>-428646</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44685</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1253,11 +1256,11 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-331681</v>
+        <v>-381681</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>138</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1277,11 +1280,11 @@
       </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>-331581</v>
+        <v>-381581</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44685</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1301,11 +1304,11 @@
       </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>-226766</v>
+        <v>-276766</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>109</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1325,11 +1328,11 @@
       </c>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>-226516</v>
+        <v>-276516</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44685</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1349,11 +1352,11 @@
       </c>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>-154723</v>
+        <v>-204723</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1373,11 +1376,11 @@
       </c>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>-154523</v>
+        <v>-204523</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44685</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1397,11 +1400,11 @@
       </c>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>-142029</v>
+        <v>-192029</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1415,15 +1418,19 @@
         <v>200</v>
       </c>
       <c r="D15" s="18"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
+      <c r="F15" s="15">
+        <v>44698</v>
+      </c>
+      <c r="G15" s="16">
+        <v>50000</v>
+      </c>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>-68797</v>
+        <v>-118797</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1441,11 +1448,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>98418</v>
+        <v>48418</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1461,11 +1468,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>99810</v>
+        <v>49810</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44685</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1481,11 +1488,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44685</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1501,91 +1508,111 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>163878</v>
+        <v>113878</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A20" s="53"/>
-      <c r="B20" s="13"/>
+      <c r="B20" s="13">
+        <v>100</v>
+      </c>
       <c r="C20" s="14"/>
-      <c r="D20" s="18"/>
+      <c r="D20" s="18" t="s">
+        <v>15</v>
+      </c>
       <c r="F20" s="15"/>
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>163878</v>
+        <v>113978</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44685</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="53"/>
-      <c r="B21" s="13"/>
+      <c r="A21" s="53">
+        <v>44677</v>
+      </c>
+      <c r="B21" s="13">
+        <v>9815</v>
+      </c>
       <c r="C21" s="14"/>
       <c r="D21" s="18"/>
       <c r="F21" s="15"/>
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>163878</v>
+        <v>123793</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44685</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="53"/>
-      <c r="B22" s="13"/>
+      <c r="A22" s="53">
+        <v>44677</v>
+      </c>
+      <c r="B22" s="13">
+        <v>18500</v>
+      </c>
       <c r="C22" s="14"/>
       <c r="D22" s="18"/>
       <c r="F22" s="15"/>
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>163878</v>
+        <v>142293</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44685</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A23" s="53"/>
-      <c r="B23" s="13"/>
+      <c r="B23" s="13">
+        <v>100</v>
+      </c>
       <c r="C23" s="14"/>
-      <c r="D23" s="18"/>
+      <c r="D23" s="18" t="s">
+        <v>15</v>
+      </c>
       <c r="F23" s="15"/>
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>163878</v>
+        <v>142393</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44685</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A24" s="53"/>
-      <c r="B24" s="13"/>
+      <c r="B24" s="13">
+        <v>2200</v>
+      </c>
       <c r="C24" s="14"/>
-      <c r="D24" s="18"/>
+      <c r="D24" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="F24" s="15"/>
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>163878</v>
+        <v>144593</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44685</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1597,11 +1624,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>163878</v>
+        <v>144593</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44685</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1613,11 +1640,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>163878</v>
+        <v>144593</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44685</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1629,11 +1656,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>163878</v>
+        <v>144593</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44685</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1645,11 +1672,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>163878</v>
+        <v>144593</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44685</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1661,11 +1688,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>163878</v>
+        <v>144593</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44685</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1677,11 +1704,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>163878</v>
+        <v>144593</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44685</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1693,11 +1720,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>163878</v>
+        <v>144593</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44685</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1709,11 +1736,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>163878</v>
+        <v>144593</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44685</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1725,11 +1752,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>163878</v>
+        <v>144593</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44685</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1742,11 +1769,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>163878</v>
+        <v>144593</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44685</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1767,7 +1794,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>761983</v>
+        <v>792698</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1775,7 +1802,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>598105</v>
+        <v>648105</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1798,7 +1825,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>163878</v>
+        <v>144593</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>DATE</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>toy kingdom</t>
+  </si>
+  <si>
+    <t>INSUREANCE</t>
   </si>
 </sst>
 </file>
@@ -1097,8 +1100,8 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1188,7 +1191,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1212,7 +1215,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1236,7 +1239,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1260,7 +1263,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1284,7 +1287,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1308,7 +1311,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1332,7 +1335,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1356,7 +1359,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1380,7 +1383,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1404,7 +1407,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1430,7 +1433,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1452,7 +1455,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1472,7 +1475,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1492,7 +1495,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1512,7 +1515,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1532,7 +1535,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1552,7 +1555,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1572,7 +1575,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1592,7 +1595,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1612,39 +1615,47 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A25" s="53"/>
-      <c r="B25" s="13"/>
+      <c r="A25" s="53">
+        <v>44682</v>
+      </c>
+      <c r="B25" s="13">
+        <v>39840</v>
+      </c>
       <c r="C25" s="14"/>
       <c r="D25" s="18"/>
       <c r="F25" s="15"/>
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>144593</v>
+        <v>184433</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A26" s="53"/>
-      <c r="B26" s="13"/>
+      <c r="B26" s="13">
+        <v>50</v>
+      </c>
       <c r="C26" s="14"/>
-      <c r="D26" s="18"/>
+      <c r="D26" s="18" t="s">
+        <v>19</v>
+      </c>
       <c r="F26" s="15"/>
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>144593</v>
+        <v>184483</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1656,11 +1667,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>144593</v>
+        <v>184483</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1672,11 +1683,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>144593</v>
+        <v>184483</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1688,11 +1699,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>144593</v>
+        <v>184483</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1704,11 +1715,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>144593</v>
+        <v>184483</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1720,11 +1731,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>144593</v>
+        <v>184483</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1736,11 +1747,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>144593</v>
+        <v>184483</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1752,11 +1763,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>144593</v>
+        <v>184483</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1769,11 +1780,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>144593</v>
+        <v>184483</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44709</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1794,7 +1805,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>792698</v>
+        <v>832588</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1825,7 +1836,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>144593</v>
+        <v>184483</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -1101,7 +1101,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1187,11 +1187,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-598105</v>
+        <v>-648105</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1211,11 +1211,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-429196</v>
+        <v>-479196</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1235,11 +1235,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-428646</v>
+        <v>-478646</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1259,11 +1259,11 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-381681</v>
+        <v>-431681</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1283,11 +1283,11 @@
       </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>-381581</v>
+        <v>-431581</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1307,11 +1307,11 @@
       </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>-276766</v>
+        <v>-326766</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1331,11 +1331,11 @@
       </c>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>-276516</v>
+        <v>-326516</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1355,11 +1355,11 @@
       </c>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>-204723</v>
+        <v>-254723</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1379,11 +1379,11 @@
       </c>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>-204523</v>
+        <v>-254523</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1403,11 +1403,11 @@
       </c>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>-192029</v>
+        <v>-242029</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,11 +1429,11 @@
       </c>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>-118797</v>
+        <v>-168797</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1447,15 +1447,19 @@
         <v>400</v>
       </c>
       <c r="D16" s="18"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16"/>
+      <c r="F16" s="15">
+        <v>44714</v>
+      </c>
+      <c r="G16" s="16">
+        <v>50000</v>
+      </c>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>48418</v>
+        <v>-1582</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1471,11 +1475,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>49810</v>
+        <v>-190</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1491,11 +1495,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1511,11 +1515,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>113878</v>
+        <v>63878</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1531,11 +1535,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>113978</v>
+        <v>63978</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1551,11 +1555,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>123793</v>
+        <v>73793</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1571,11 +1575,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>142293</v>
+        <v>92293</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1591,11 +1595,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>142393</v>
+        <v>92393</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1611,11 +1615,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>144593</v>
+        <v>94593</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1631,11 +1635,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>184433</v>
+        <v>134433</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1651,11 +1655,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>184483</v>
+        <v>134483</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1667,11 +1671,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>184483</v>
+        <v>134483</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1683,11 +1687,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>184483</v>
+        <v>134483</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1699,11 +1703,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>184483</v>
+        <v>134483</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1715,11 +1719,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>184483</v>
+        <v>134483</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1731,11 +1735,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>184483</v>
+        <v>134483</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1747,11 +1751,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>184483</v>
+        <v>134483</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1763,11 +1767,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>184483</v>
+        <v>134483</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1780,11 +1784,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>184483</v>
+        <v>134483</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44713</v>
+        <v>44714</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1813,7 +1817,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>648105</v>
+        <v>698105</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1836,7 +1840,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>184483</v>
+        <v>134483</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -1098,10 +1098,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1215,7 +1215,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44714</v>
+        <v>44719</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44714</v>
+        <v>44719</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
+        <v>44719</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
+        <v>44719</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1459,10 +1459,10 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A17" s="53"/>
       <c r="B17" s="13">
         <v>1392</v>
@@ -1479,10 +1479,10 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44719</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A18" s="53"/>
       <c r="B18" s="13">
         <v>190</v>
@@ -1499,10 +1499,10 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44719</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="53">
         <v>44678</v>
       </c>
@@ -1519,10 +1519,10 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A20" s="53"/>
       <c r="B20" s="13">
         <v>100</v>
@@ -1539,10 +1539,10 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44719</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A21" s="53">
         <v>44677</v>
       </c>
@@ -1559,10 +1559,13 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>42</v>
+      </c>
+      <c r="L21">
+        <v>153083</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A22" s="53">
         <v>44677</v>
       </c>
@@ -1579,10 +1582,10 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A23" s="53"/>
       <c r="B23" s="13">
         <v>100</v>
@@ -1599,10 +1602,13 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44719</v>
+      </c>
+      <c r="L23">
+        <v>16394</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A24" s="53"/>
       <c r="B24" s="13">
         <v>2200</v>
@@ -1619,10 +1625,10 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44719</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A25" s="53">
         <v>44682</v>
       </c>
@@ -1639,10 +1645,10 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A26" s="53"/>
       <c r="B26" s="13">
         <v>50</v>
@@ -1659,10 +1665,10 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44719</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="53"/>
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
@@ -1675,10 +1681,10 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44719</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A28" s="53"/>
       <c r="B28" s="13"/>
       <c r="C28" s="14"/>
@@ -1691,10 +1697,10 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44719</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A29" s="53"/>
       <c r="B29" s="13"/>
       <c r="C29" s="14"/>
@@ -1707,10 +1713,10 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44719</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A30" s="53"/>
       <c r="B30" s="13"/>
       <c r="C30" s="14"/>
@@ -1723,10 +1729,10 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44719</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A31" s="53"/>
       <c r="B31" s="13"/>
       <c r="C31" s="14"/>
@@ -1739,10 +1745,10 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44719</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A32" s="53"/>
       <c r="B32" s="13"/>
       <c r="C32" s="14"/>
@@ -1755,7 +1761,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
+        <v>44719</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1771,7 +1777,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44714</v>
+        <v>44719</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1788,7 +1794,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44714</v>
+        <v>44719</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -1100,7 +1100,7 @@
   </sheetPr>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1215,7 +1215,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44719</v>
+        <v>44723</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44719</v>
+        <v>44723</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44719</v>
+        <v>44723</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44719</v>
+        <v>44723</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44719</v>
+        <v>44723</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44719</v>
+        <v>44723</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
@@ -1539,7 +1539,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44719</v>
+        <v>44723</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L21">
         <v>153083</v>
@@ -1582,7 +1582,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44719</v>
+        <v>44723</v>
       </c>
       <c r="L23">
         <v>16394</v>
@@ -1625,7 +1625,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44719</v>
+        <v>44723</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44719</v>
+        <v>44723</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
@@ -1681,7 +1681,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44719</v>
+        <v>44723</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44719</v>
+        <v>44723</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44719</v>
+        <v>44723</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
@@ -1729,7 +1729,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44719</v>
+        <v>44723</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44719</v>
+        <v>44723</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44719</v>
+        <v>44723</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1777,7 +1777,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44719</v>
+        <v>44723</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1794,7 +1794,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44719</v>
+        <v>44723</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>DATE</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>INSUREANCE</t>
+  </si>
+  <si>
+    <t>RAVI BALAGHAT</t>
+  </si>
+  <si>
+    <t>NEFT</t>
   </si>
 </sst>
 </file>
@@ -1101,7 +1107,7 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1187,11 +1193,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-648105</v>
+        <v>-751188</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1211,11 +1217,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-479196</v>
+        <v>-582279</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1235,11 +1241,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-478646</v>
+        <v>-581729</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44723</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1259,11 +1265,11 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-431681</v>
+        <v>-534764</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1283,11 +1289,11 @@
       </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>-431581</v>
+        <v>-534664</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44723</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1307,11 +1313,11 @@
       </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>-326766</v>
+        <v>-429849</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1331,11 +1337,11 @@
       </c>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>-326516</v>
+        <v>-429599</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44723</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1355,11 +1361,11 @@
       </c>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>-254723</v>
+        <v>-357806</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1379,11 +1385,11 @@
       </c>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>-254523</v>
+        <v>-357606</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44723</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1403,11 +1409,11 @@
       </c>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>-242029</v>
+        <v>-345112</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,11 +1435,11 @@
       </c>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>-168797</v>
+        <v>-271880</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1455,11 +1461,11 @@
       </c>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>-1582</v>
+        <v>-104665</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
@@ -1471,15 +1477,19 @@
       <c r="D17" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16"/>
+      <c r="F17" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="16">
+        <v>16394</v>
+      </c>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>-190</v>
+        <v>-103273</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44723</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
@@ -1491,15 +1501,19 @@
       <c r="D18" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="16"/>
+      <c r="F18" s="15">
+        <v>44726</v>
+      </c>
+      <c r="G18" s="16">
+        <v>50000</v>
+      </c>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-103083</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44723</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
@@ -1511,15 +1525,19 @@
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="18"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="16"/>
+      <c r="F19" s="15">
+        <v>44726</v>
+      </c>
+      <c r="G19" s="16">
+        <v>36689</v>
+      </c>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>63878</v>
+        <v>-39205</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
@@ -1535,11 +1553,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>63978</v>
+        <v>-39105</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44723</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
@@ -1555,11 +1573,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>73793</v>
+        <v>-29290</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="L21">
         <v>153083</v>
@@ -1578,11 +1596,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>92293</v>
+        <v>-10790</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
@@ -1598,11 +1616,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>92393</v>
+        <v>-10690</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44723</v>
+        <v>44732</v>
       </c>
       <c r="L23">
         <v>16394</v>
@@ -1621,11 +1639,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>94593</v>
+        <v>-8490</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44723</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
@@ -1641,11 +1659,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>134433</v>
+        <v>31350</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
@@ -1661,27 +1679,31 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>134483</v>
+        <v>31400</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44723</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="53"/>
-      <c r="B27" s="13"/>
+      <c r="B27" s="13">
+        <v>18600</v>
+      </c>
       <c r="C27" s="14"/>
-      <c r="D27" s="18"/>
+      <c r="D27" s="18" t="s">
+        <v>20</v>
+      </c>
       <c r="F27" s="15"/>
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>134483</v>
+        <v>50000</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44723</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
@@ -1693,11 +1715,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>134483</v>
+        <v>50000</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44723</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
@@ -1709,11 +1731,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>134483</v>
+        <v>50000</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44723</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
@@ -1725,11 +1747,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>134483</v>
+        <v>50000</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44723</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
@@ -1741,11 +1763,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>134483</v>
+        <v>50000</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44723</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
@@ -1757,11 +1779,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>134483</v>
+        <v>50000</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44723</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1773,11 +1795,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>134483</v>
+        <v>50000</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44723</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1790,11 +1812,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>134483</v>
+        <v>50000</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44723</v>
+        <v>44732</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1815,7 +1837,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>832588</v>
+        <v>851188</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1823,7 +1845,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>698105</v>
+        <v>801188</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1846,7 +1868,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>134483</v>
+        <v>50000</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -1106,8 +1106,8 @@
   </sheetPr>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44732</v>
+        <v>44742</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44732</v>
+        <v>44742</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44732</v>
+        <v>44742</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44732</v>
+        <v>44742</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44732</v>
+        <v>44742</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44732</v>
+        <v>44742</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44732</v>
+        <v>44742</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
@@ -1577,7 +1577,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="L21">
         <v>153083</v>
@@ -1600,7 +1600,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44732</v>
+        <v>44742</v>
       </c>
       <c r="L23">
         <v>16394</v>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44732</v>
+        <v>44742</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44732</v>
+        <v>44742</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
@@ -1703,7 +1703,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44732</v>
+        <v>44742</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
@@ -1719,7 +1719,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44732</v>
+        <v>44742</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44732</v>
+        <v>44742</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44732</v>
+        <v>44742</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44732</v>
+        <v>44742</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44732</v>
+        <v>44742</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44732</v>
+        <v>44742</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44732</v>
+        <v>44742</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>DATE</t>
   </si>
@@ -54,34 +54,13 @@
     <t xml:space="preserve">CUSTOMER NAME - TOY GALLERY </t>
   </si>
   <si>
-    <t>T</t>
+    <t>transfer</t>
   </si>
   <si>
-    <t>INSURANCE</t>
+    <t>OK</t>
   </si>
   <si>
-    <t>GS</t>
-  </si>
-  <si>
-    <t>insurance</t>
-  </si>
-  <si>
-    <t>CALCULATION M</t>
-  </si>
-  <si>
-    <t>ADUSTED</t>
-  </si>
-  <si>
-    <t>toy kingdom</t>
-  </si>
-  <si>
-    <t>INSUREANCE</t>
-  </si>
-  <si>
-    <t>RAVI BALAGHAT</t>
-  </si>
-  <si>
-    <t>NEFT</t>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -1104,10 +1083,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1123,12 +1102,12 @@
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:16">
       <c r="E1" s="34" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75">
+    <row r="2" spans="1:16" ht="15.75">
       <c r="A2" s="41" t="s">
         <v>11</v>
       </c>
@@ -1139,7 +1118,7 @@
       <c r="F2" s="42"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="16.5" thickBot="1">
+    <row r="3" spans="1:16" ht="16.5" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1148,7 +1127,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+    <row r="4" spans="1:16" ht="17.25" thickTop="1" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1174,9 +1153,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+    <row r="5" spans="1:16" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="7">
-        <v>44547</v>
+        <v>44726</v>
       </c>
       <c r="B5" s="8">
         <v>50000</v>
@@ -1185,528 +1164,417 @@
       <c r="D5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="8">
-        <v>290</v>
-      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-751188</v>
+        <v>50000</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="7">
-        <v>44547</v>
+        <v>44727</v>
       </c>
       <c r="B6" s="8">
-        <v>168909</v>
+        <v>74145</v>
       </c>
       <c r="C6" s="50"/>
-      <c r="D6" s="9"/>
-      <c r="F6" s="7">
-        <v>44573</v>
-      </c>
-      <c r="G6" s="8">
-        <v>50000</v>
-      </c>
+      <c r="D6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-582279</v>
+        <v>124145</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A7" s="49">
+        <v>44730</v>
+      </c>
       <c r="B7" s="16">
-        <v>550</v>
+        <v>59625</v>
       </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="16">
-        <v>4230</v>
-      </c>
+      <c r="D7" s="51">
+        <v>5140</v>
+      </c>
+      <c r="E7">
+        <v>18</v>
+      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-581729</v>
+        <v>183770</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44742</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15">
-        <v>44547</v>
-      </c>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A8" s="15"/>
       <c r="B8" s="16">
-        <v>46965</v>
+        <v>5040</v>
       </c>
       <c r="C8" s="19"/>
-      <c r="D8" s="52"/>
-      <c r="F8" s="15">
-        <v>44599</v>
-      </c>
-      <c r="G8" s="16">
-        <v>63902</v>
-      </c>
+      <c r="D8" s="52">
+        <v>59505</v>
+      </c>
+      <c r="E8">
+        <v>18</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-534764</v>
+        <v>188810</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44750</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="53"/>
       <c r="B9" s="13">
-        <v>100</v>
+        <v>13510</v>
       </c>
       <c r="C9" s="14"/>
-      <c r="D9" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="15">
-        <v>44613</v>
-      </c>
-      <c r="G9" s="16">
-        <v>18323</v>
-      </c>
+      <c r="D9" s="18">
+        <v>5320</v>
+      </c>
+      <c r="E9">
+        <v>23</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>-534664</v>
+        <v>202320</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44742</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="53">
-        <v>44576</v>
-      </c>
+        <v>44750</v>
+      </c>
+      <c r="P9">
+        <f>SUM(B5,B6,D7:D12)</f>
+        <v>194460</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A10" s="53"/>
       <c r="B10" s="13">
-        <v>104815</v>
+        <v>400</v>
       </c>
       <c r="C10" s="14"/>
-      <c r="D10" s="18"/>
-      <c r="F10" s="15">
-        <v>44614</v>
-      </c>
-      <c r="G10" s="16">
-        <v>200000</v>
-      </c>
+      <c r="D10" s="18">
+        <v>150</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>-429849</v>
+        <v>202720</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>166</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44750</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="53"/>
-      <c r="B11" s="17">
-        <v>250</v>
-      </c>
+      <c r="B11" s="17"/>
       <c r="C11" s="19"/>
-      <c r="D11" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="15">
-        <v>44616</v>
-      </c>
-      <c r="G11" s="16">
-        <v>6837</v>
-      </c>
+      <c r="D11" s="18">
+        <v>150</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>-429599</v>
+        <v>202720</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44742</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="53">
-        <v>44602</v>
-      </c>
-      <c r="B12" s="17">
-        <v>71793</v>
-      </c>
+        <v>44750</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A12" s="53"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="14"/>
-      <c r="D12" s="18"/>
-      <c r="F12" s="15">
-        <v>44644</v>
-      </c>
-      <c r="G12" s="16">
-        <v>100000</v>
-      </c>
+      <c r="D12" s="18">
+        <v>50</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>-357806</v>
+        <v>202720</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
+        <v>44750</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A13" s="53"/>
-      <c r="B13" s="13">
-        <v>200</v>
-      </c>
+      <c r="B13" s="13"/>
       <c r="C13" s="14"/>
-      <c r="D13" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="12">
-        <v>44670</v>
-      </c>
-      <c r="G13" s="13">
-        <v>60189</v>
-      </c>
+      <c r="D13" s="18"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>-357606</v>
+        <v>202720</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44742</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="53">
-        <v>44616</v>
-      </c>
-      <c r="B14" s="17">
-        <v>12494</v>
-      </c>
+        <v>44750</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A14" s="53"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="14"/>
       <c r="D14" s="18"/>
-      <c r="F14" s="15">
-        <v>44678</v>
-      </c>
-      <c r="G14" s="16">
-        <v>94334</v>
-      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>-345112</v>
+        <v>202720</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="53">
-        <v>44616</v>
-      </c>
-      <c r="B15" s="17">
-        <v>73032</v>
-      </c>
-      <c r="C15" s="19">
-        <v>200</v>
-      </c>
+        <v>44750</v>
+      </c>
+      <c r="L14">
+        <v>14290</v>
+      </c>
+      <c r="M14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A15" s="53"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="18"/>
-      <c r="F15" s="15">
-        <v>44698</v>
-      </c>
-      <c r="G15" s="16">
-        <v>50000</v>
-      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>-271880</v>
+        <v>202720</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="53">
-        <v>44625</v>
-      </c>
-      <c r="B16" s="17">
-        <v>166815</v>
-      </c>
-      <c r="C16" s="14">
-        <v>400</v>
-      </c>
+        <v>44750</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A16" s="53"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="18"/>
-      <c r="F16" s="15">
-        <v>44714</v>
-      </c>
-      <c r="G16" s="16">
-        <v>50000</v>
-      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>-104665</v>
+        <v>202720</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
+        <v>44750</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A17" s="53"/>
-      <c r="B17" s="13">
-        <v>1392</v>
-      </c>
+      <c r="B17" s="13"/>
       <c r="C17" s="14"/>
-      <c r="D17" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="16">
-        <v>16394</v>
-      </c>
+      <c r="D17" s="18"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>-103273</v>
+        <v>202720</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44742</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
+        <v>44750</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A18" s="53"/>
-      <c r="B18" s="13">
-        <v>190</v>
-      </c>
+      <c r="B18" s="13"/>
       <c r="C18" s="14"/>
-      <c r="D18" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="15">
-        <v>44726</v>
-      </c>
-      <c r="G18" s="16">
-        <v>50000</v>
-      </c>
+      <c r="D18" s="18"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>-103083</v>
+        <v>202720</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44742</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="53">
-        <v>44678</v>
-      </c>
-      <c r="B19" s="13">
-        <v>63878</v>
-      </c>
+        <v>44750</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A19" s="53"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="14"/>
       <c r="D19" s="18"/>
-      <c r="F19" s="15">
-        <v>44726</v>
-      </c>
-      <c r="G19" s="16">
-        <v>36689</v>
-      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>-39205</v>
+        <v>202720</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
+        <v>44750</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A20" s="53"/>
-      <c r="B20" s="13">
-        <v>100</v>
-      </c>
+      <c r="B20" s="13"/>
       <c r="C20" s="14"/>
-      <c r="D20" s="18" t="s">
-        <v>15</v>
-      </c>
+      <c r="D20" s="18"/>
       <c r="F20" s="15"/>
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>-39105</v>
+        <v>202720</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44742</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="53">
-        <v>44677</v>
-      </c>
-      <c r="B21" s="13">
-        <v>9815</v>
-      </c>
+        <v>44750</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A21" s="53"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="14"/>
       <c r="D21" s="18"/>
       <c r="F21" s="15"/>
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>-29290</v>
+        <v>202720</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>65</v>
-      </c>
-      <c r="L21">
-        <v>153083</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="53">
-        <v>44677</v>
-      </c>
-      <c r="B22" s="13">
-        <v>18500</v>
-      </c>
+        <v>44750</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A22" s="53"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="14"/>
       <c r="D22" s="18"/>
       <c r="F22" s="15"/>
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>-10790</v>
+        <v>202720</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
+        <v>44750</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A23" s="53"/>
-      <c r="B23" s="13">
-        <v>100</v>
-      </c>
+      <c r="B23" s="13"/>
       <c r="C23" s="14"/>
-      <c r="D23" s="18" t="s">
-        <v>15</v>
-      </c>
+      <c r="D23" s="18"/>
       <c r="F23" s="15"/>
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>-10690</v>
+        <v>202720</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44742</v>
-      </c>
-      <c r="L23">
-        <v>16394</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
+        <v>44750</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A24" s="53"/>
-      <c r="B24" s="13">
-        <v>2200</v>
-      </c>
+      <c r="B24" s="13"/>
       <c r="C24" s="14"/>
-      <c r="D24" s="18" t="s">
-        <v>18</v>
-      </c>
+      <c r="D24" s="18"/>
       <c r="F24" s="15"/>
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>-8490</v>
+        <v>202720</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44742</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A25" s="53">
-        <v>44682</v>
-      </c>
-      <c r="B25" s="13">
-        <v>39840</v>
-      </c>
+        <v>44750</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A25" s="53"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="14"/>
       <c r="D25" s="18"/>
       <c r="F25" s="15"/>
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>31350</v>
+        <v>202720</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
+        <v>44750</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A26" s="53"/>
-      <c r="B26" s="13">
-        <v>50</v>
-      </c>
+      <c r="B26" s="13"/>
       <c r="C26" s="14"/>
-      <c r="D26" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="D26" s="18"/>
       <c r="F26" s="15"/>
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>31400</v>
+        <v>202720</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44742</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
+        <v>44750</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="53"/>
-      <c r="B27" s="13">
-        <v>18600</v>
-      </c>
+      <c r="B27" s="13"/>
       <c r="C27" s="14"/>
-      <c r="D27" s="18" t="s">
-        <v>20</v>
-      </c>
+      <c r="D27" s="18"/>
       <c r="F27" s="15"/>
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>202720</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44742</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
+        <v>44750</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A28" s="53"/>
       <c r="B28" s="13"/>
       <c r="C28" s="14"/>
@@ -1715,14 +1583,14 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>202720</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44742</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
+        <v>44750</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A29" s="53"/>
       <c r="B29" s="13"/>
       <c r="C29" s="14"/>
@@ -1731,14 +1599,14 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>202720</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44742</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
+        <v>44750</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A30" s="53"/>
       <c r="B30" s="13"/>
       <c r="C30" s="14"/>
@@ -1747,14 +1615,14 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>202720</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44742</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
+        <v>44750</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A31" s="53"/>
       <c r="B31" s="13"/>
       <c r="C31" s="14"/>
@@ -1763,14 +1631,14 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>202720</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44742</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
+        <v>44750</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A32" s="53"/>
       <c r="B32" s="13"/>
       <c r="C32" s="14"/>
@@ -1779,11 +1647,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>202720</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44742</v>
+        <v>44750</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1795,11 +1663,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>50000</v>
+        <v>202720</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44742</v>
+        <v>44750</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1812,11 +1680,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>202720</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44742</v>
+        <v>44750</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1837,7 +1705,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>851188</v>
+        <v>202720</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1845,7 +1713,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>801188</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1868,7 +1736,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>50000</v>
+        <v>202720</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>DATE</t>
   </si>
@@ -62,6 +62,18 @@
   <si>
     <t>TOTAL</t>
   </si>
+  <si>
+    <t>PENDRA</t>
+  </si>
+  <si>
+    <t>AMOUNT</t>
+  </si>
+  <si>
+    <t>GANESH GENERAL</t>
+  </si>
+  <si>
+    <t>SADHNA PHOTO</t>
+  </si>
 </sst>
 </file>
 
@@ -71,7 +83,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d/mmm;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]d/mmm/yy;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +185,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -297,7 +317,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
@@ -426,6 +446,10 @@
     <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
@@ -1085,8 +1109,8 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1164,15 +1188,19 @@
       <c r="D5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7">
+        <v>44750</v>
+      </c>
+      <c r="G5" s="8">
+        <v>14290</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>50000</v>
+        <v>-14290</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,15 +1214,19 @@
       <c r="D6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="7">
+        <v>44754</v>
+      </c>
+      <c r="G6" s="8">
+        <v>50000</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>124145</v>
+        <v>59855</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="17.25" thickTop="1" thickBot="1">
@@ -1215,11 +1247,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>183770</v>
+        <v>119480</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
@@ -1238,11 +1270,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>188810</v>
+        <v>124520</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44750</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
@@ -1261,11 +1293,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>202320</v>
+        <v>138030</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44750</v>
+        <v>44760</v>
       </c>
       <c r="P9">
         <f>SUM(B5,B6,D7:D12)</f>
@@ -1285,11 +1317,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>202720</v>
+        <v>138430</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44750</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
@@ -1303,11 +1335,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>202720</v>
+        <v>138430</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44750</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
@@ -1321,11 +1353,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>202720</v>
+        <v>138430</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44750</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1337,11 +1369,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>202720</v>
+        <v>138430</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44750</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
@@ -1353,11 +1385,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>202720</v>
+        <v>138430</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44750</v>
+        <v>44760</v>
       </c>
       <c r="L14">
         <v>14290</v>
@@ -1375,11 +1407,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>202720</v>
+        <v>138430</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44750</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
@@ -1391,11 +1423,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>202720</v>
+        <v>138430</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44750</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1407,11 +1439,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>202720</v>
+        <v>138430</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44750</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1423,11 +1455,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>202720</v>
+        <v>138430</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44750</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1439,11 +1471,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>202720</v>
+        <v>138430</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44750</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1455,11 +1487,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>202720</v>
+        <v>138430</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44750</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1471,11 +1503,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>202720</v>
+        <v>138430</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44750</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1487,11 +1519,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>202720</v>
+        <v>138430</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44750</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1503,11 +1535,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>202720</v>
+        <v>138430</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44750</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1519,11 +1551,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>202720</v>
+        <v>138430</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44750</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1535,11 +1567,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>202720</v>
+        <v>138430</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44750</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1551,11 +1583,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>202720</v>
+        <v>138430</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44750</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1567,11 +1599,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>202720</v>
+        <v>138430</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44750</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1583,11 +1615,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>202720</v>
+        <v>138430</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44750</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1599,11 +1631,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>202720</v>
+        <v>138430</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44750</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1615,11 +1647,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>202720</v>
+        <v>138430</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44750</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1631,11 +1663,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>202720</v>
+        <v>138430</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44750</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1647,11 +1679,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>202720</v>
+        <v>138430</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44750</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1663,11 +1695,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>202720</v>
+        <v>138430</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44750</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1680,11 +1712,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>202720</v>
+        <v>138430</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44750</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1713,7 +1745,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>64290</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1736,7 +1768,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>202720</v>
+        <v>138430</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
@@ -2333,12 +2365,152 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="36">
+      <c r="A1" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>590</v>
+      </c>
+      <c r="C2" s="46">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="57">
+        <v>1140</v>
+      </c>
+      <c r="C3" s="59">
+        <v>43547</v>
+      </c>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="58"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="57"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="57"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="57"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="58"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="57"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="57"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="57"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="57"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="57"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="57"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1109,8 +1109,8 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:P38"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1196,11 +1196,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-14290</v>
+        <v>-102720</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="17.25" thickTop="1" thickBot="1">
@@ -1222,11 +1222,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>59855</v>
+        <v>-28575</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="17.25" thickTop="1" thickBot="1">
@@ -1243,15 +1243,19 @@
       <c r="E7">
         <v>18</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="49">
+        <v>44762</v>
+      </c>
+      <c r="G7" s="16">
+        <v>80000</v>
+      </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>119480</v>
+        <v>31050</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,15 +1270,19 @@
       <c r="E8">
         <v>18</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
+      <c r="F8" s="15">
+        <v>44762</v>
+      </c>
+      <c r="G8" s="16">
+        <v>170</v>
+      </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>124520</v>
+        <v>36090</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44760</v>
+        <v>44770</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
@@ -1290,14 +1298,16 @@
         <v>23</v>
       </c>
       <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
+      <c r="G9" s="16">
+        <v>8260</v>
+      </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>138030</v>
+        <v>49600</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44760</v>
+        <v>44770</v>
       </c>
       <c r="P9">
         <f>SUM(B5,B6,D7:D12)</f>
@@ -1317,11 +1327,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>138430</v>
+        <v>50000</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44770</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
@@ -1335,11 +1345,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>138430</v>
+        <v>50000</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44770</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
@@ -1353,11 +1363,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>138430</v>
+        <v>50000</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44770</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1369,11 +1379,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>138430</v>
+        <v>50000</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44770</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
@@ -1385,11 +1395,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>138430</v>
+        <v>50000</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44770</v>
       </c>
       <c r="L14">
         <v>14290</v>
@@ -1407,11 +1417,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>138430</v>
+        <v>50000</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44770</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
@@ -1423,11 +1433,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>138430</v>
+        <v>50000</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44770</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1439,11 +1449,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>138430</v>
+        <v>50000</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44770</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1455,11 +1465,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>138430</v>
+        <v>50000</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44770</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1471,11 +1481,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>138430</v>
+        <v>50000</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44770</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1487,11 +1497,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>138430</v>
+        <v>50000</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44770</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1503,11 +1513,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>138430</v>
+        <v>50000</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44760</v>
+        <v>44770</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1519,11 +1529,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>138430</v>
+        <v>50000</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44770</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1535,11 +1545,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>138430</v>
+        <v>50000</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44770</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1551,11 +1561,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>138430</v>
+        <v>50000</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44770</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1567,11 +1577,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>138430</v>
+        <v>50000</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44770</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1583,11 +1593,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>138430</v>
+        <v>50000</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44770</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1599,11 +1609,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>138430</v>
+        <v>50000</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44770</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1615,11 +1625,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>138430</v>
+        <v>50000</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44770</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1631,11 +1641,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>138430</v>
+        <v>50000</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44770</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1647,11 +1657,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>138430</v>
+        <v>50000</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44770</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1663,11 +1673,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>138430</v>
+        <v>50000</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44770</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1679,11 +1689,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>138430</v>
+        <v>50000</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44770</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1695,11 +1705,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>138430</v>
+        <v>50000</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44760</v>
+        <v>44770</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1712,11 +1722,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>138430</v>
+        <v>50000</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44760</v>
+        <v>44770</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1745,7 +1755,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>64290</v>
+        <v>152720</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1768,7 +1778,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>138430</v>
+        <v>50000</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
@@ -2367,7 +2377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>DATE</t>
   </si>
@@ -54,15 +54,6 @@
     <t xml:space="preserve">CUSTOMER NAME - TOY GALLERY </t>
   </si>
   <si>
-    <t>transfer</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
     <t>PENDRA</t>
   </si>
   <si>
@@ -73,6 +64,18 @@
   </si>
   <si>
     <t>SADHNA PHOTO</t>
+  </si>
+  <si>
+    <t>transfer 20-7-22</t>
+  </si>
+  <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>insrance</t>
+  </si>
+  <si>
+    <t>gs 20-7-22</t>
   </si>
 </sst>
 </file>
@@ -1107,10 +1110,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="L6" sqref="L6:P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1126,12 +1129,12 @@
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:9">
       <c r="E1" s="34" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75">
+    <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="41" t="s">
         <v>11</v>
       </c>
@@ -1142,7 +1145,7 @@
       <c r="F2" s="42"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="16.5" thickBot="1">
+    <row r="3" spans="1:9" ht="16.5" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1151,7 +1154,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="17.25" thickTop="1" thickBot="1">
+    <row r="4" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1177,200 +1180,163 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7">
-        <v>44726</v>
-      </c>
+    <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A5" s="7"/>
       <c r="B5" s="8">
         <v>50000</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="7">
-        <v>44750</v>
+        <v>16</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="G5" s="8">
-        <v>14290</v>
+        <v>1478</v>
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-102720</v>
+        <v>-1478</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="17.25" thickTop="1" thickBot="1">
+        <v>44791</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="7">
-        <v>44727</v>
+        <v>44762</v>
       </c>
       <c r="B6" s="8">
-        <v>74145</v>
+        <v>184670</v>
       </c>
       <c r="C6" s="50"/>
-      <c r="D6" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="D6" s="9"/>
       <c r="F6" s="7">
-        <v>44754</v>
+        <v>44786</v>
       </c>
       <c r="G6" s="8">
         <v>50000</v>
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-28575</v>
+        <v>183192</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49">
-        <v>44730</v>
-      </c>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A7" s="49"/>
       <c r="B7" s="16">
-        <v>59625</v>
+        <v>350</v>
       </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="51">
-        <v>5140</v>
-      </c>
-      <c r="E7">
-        <v>18</v>
-      </c>
-      <c r="F7" s="49">
-        <v>44762</v>
-      </c>
-      <c r="G7" s="16">
-        <v>80000</v>
-      </c>
+      <c r="D7" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>31050</v>
+        <v>183542</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15"/>
+        <v>44791</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A8" s="15">
+        <v>44777</v>
+      </c>
       <c r="B8" s="16">
-        <v>5040</v>
+        <v>52298</v>
       </c>
       <c r="C8" s="19"/>
-      <c r="D8" s="52">
-        <v>59505</v>
-      </c>
-      <c r="E8">
-        <v>18</v>
-      </c>
-      <c r="F8" s="15">
-        <v>44762</v>
-      </c>
-      <c r="G8" s="16">
-        <v>170</v>
-      </c>
+      <c r="D8" s="52"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>36090</v>
+        <v>235840</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44770</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="53"/>
       <c r="B9" s="13">
-        <v>13510</v>
+        <v>150</v>
       </c>
       <c r="C9" s="14"/>
-      <c r="D9" s="18">
-        <v>5320</v>
-      </c>
-      <c r="E9">
-        <v>23</v>
+      <c r="D9" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="F9" s="15"/>
-      <c r="G9" s="16">
-        <v>8260</v>
-      </c>
+      <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>49600</v>
+        <v>235990</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44770</v>
-      </c>
-      <c r="P9">
-        <f>SUM(B5,B6,D7:D12)</f>
-        <v>194460</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+        <v>44791</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="53"/>
-      <c r="B10" s="13">
-        <v>400</v>
-      </c>
+      <c r="B10" s="13"/>
       <c r="C10" s="14"/>
-      <c r="D10" s="18">
-        <v>150</v>
-      </c>
+      <c r="D10" s="18"/>
       <c r="F10" s="15"/>
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>235990</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44770</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+        <v>44791</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="53"/>
       <c r="B11" s="17"/>
       <c r="C11" s="19"/>
-      <c r="D11" s="18">
-        <v>150</v>
-      </c>
+      <c r="D11" s="18"/>
       <c r="F11" s="15"/>
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>235990</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44770</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+        <v>44791</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="53"/>
       <c r="B12" s="17"/>
       <c r="C12" s="14"/>
-      <c r="D12" s="18">
-        <v>50</v>
-      </c>
+      <c r="D12" s="18"/>
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>235990</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44770</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
+        <v>44791</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A13" s="53"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
@@ -1379,14 +1345,14 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>235990</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44770</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+        <v>44791</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="53"/>
       <c r="B14" s="17"/>
       <c r="C14" s="14"/>
@@ -1395,20 +1361,14 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>235990</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44770</v>
-      </c>
-      <c r="L14">
-        <v>14290</v>
-      </c>
-      <c r="M14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+        <v>44791</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="53"/>
       <c r="B15" s="17"/>
       <c r="C15" s="19"/>
@@ -1417,14 +1377,14 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>235990</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44770</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="16.5" thickTop="1" thickBot="1">
+        <v>44791</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="53"/>
       <c r="B16" s="17"/>
       <c r="C16" s="14"/>
@@ -1433,11 +1393,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>235990</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44770</v>
+        <v>44791</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1449,11 +1409,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>235990</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44770</v>
+        <v>44791</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1465,11 +1425,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>235990</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44770</v>
+        <v>44791</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1481,11 +1441,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>235990</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44770</v>
+        <v>44791</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1497,11 +1457,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>235990</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44770</v>
+        <v>44791</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1513,11 +1473,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>235990</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44770</v>
+        <v>44791</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1529,11 +1489,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>235990</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44770</v>
+        <v>44791</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1545,11 +1505,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>235990</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44770</v>
+        <v>44791</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1561,11 +1521,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>235990</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44770</v>
+        <v>44791</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1577,11 +1537,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>235990</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44770</v>
+        <v>44791</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1593,11 +1553,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>235990</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44770</v>
+        <v>44791</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1609,11 +1569,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>235990</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44770</v>
+        <v>44791</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1625,11 +1585,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>235990</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44770</v>
+        <v>44791</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1641,11 +1601,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>235990</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44770</v>
+        <v>44791</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1657,11 +1617,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>235990</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44770</v>
+        <v>44791</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1673,11 +1633,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>235990</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44770</v>
+        <v>44791</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1689,11 +1649,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>235990</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44770</v>
+        <v>44791</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1705,11 +1665,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>50000</v>
+        <v>235990</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44770</v>
+        <v>44791</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1722,11 +1682,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>235990</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44770</v>
+        <v>44791</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1747,7 +1707,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>202720</v>
+        <v>287468</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1755,7 +1715,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>152720</v>
+        <v>51478</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1778,7 +1738,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>50000</v>
+        <v>235990</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
@@ -2389,10 +2349,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36">
       <c r="A1" s="56" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -2400,7 +2360,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>590</v>
@@ -2411,7 +2371,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B3" s="57">
         <v>1140</v>

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6:P21"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1197,11 +1197,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-1478</v>
+        <v>-51478</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44791</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1221,11 +1221,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>183192</v>
+        <v>133192</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1237,15 +1237,19 @@
       <c r="D7" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="49">
+        <v>44796</v>
+      </c>
+      <c r="G7" s="16">
+        <v>50000</v>
+      </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>183542</v>
+        <v>133542</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44791</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1261,11 +1265,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>235840</v>
+        <v>185840</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1281,11 +1285,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>235990</v>
+        <v>185990</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44791</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1297,11 +1301,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>235990</v>
+        <v>185990</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44791</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1313,11 +1317,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>235990</v>
+        <v>185990</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44791</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1329,11 +1333,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>235990</v>
+        <v>185990</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44791</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1345,11 +1349,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>235990</v>
+        <v>185990</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44791</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1361,11 +1365,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>235990</v>
+        <v>185990</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44791</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1377,11 +1381,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>235990</v>
+        <v>185990</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44791</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1393,11 +1397,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>235990</v>
+        <v>185990</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44791</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1409,11 +1413,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>235990</v>
+        <v>185990</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44791</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1425,11 +1429,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>235990</v>
+        <v>185990</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44791</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1441,11 +1445,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>235990</v>
+        <v>185990</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44791</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1457,11 +1461,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>235990</v>
+        <v>185990</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44791</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1473,11 +1477,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>235990</v>
+        <v>185990</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44791</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1489,11 +1493,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>235990</v>
+        <v>185990</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44791</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1505,11 +1509,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>235990</v>
+        <v>185990</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44791</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1521,11 +1525,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>235990</v>
+        <v>185990</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44791</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1537,11 +1541,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>235990</v>
+        <v>185990</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44791</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1553,11 +1557,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>235990</v>
+        <v>185990</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44791</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1569,11 +1573,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>235990</v>
+        <v>185990</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44791</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1585,11 +1589,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>235990</v>
+        <v>185990</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44791</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1601,11 +1605,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>235990</v>
+        <v>185990</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44791</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1617,11 +1621,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>235990</v>
+        <v>185990</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44791</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1633,11 +1637,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>235990</v>
+        <v>185990</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44791</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1649,11 +1653,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>235990</v>
+        <v>185990</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44791</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1665,11 +1669,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>235990</v>
+        <v>185990</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44791</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1682,11 +1686,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>235990</v>
+        <v>185990</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44791</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1715,7 +1719,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>51478</v>
+        <v>101478</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1738,7 +1742,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>235990</v>
+        <v>185990</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>DATE</t>
   </si>
@@ -64,18 +64,6 @@
   </si>
   <si>
     <t>SADHNA PHOTO</t>
-  </si>
-  <si>
-    <t>transfer 20-7-22</t>
-  </si>
-  <si>
-    <t>insurance</t>
-  </si>
-  <si>
-    <t>insrance</t>
-  </si>
-  <si>
-    <t>gs 20-7-22</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1101,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1183,113 +1171,83 @@
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="7"/>
       <c r="B5" s="8">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="8">
-        <v>1478</v>
-      </c>
+      <c r="D5" s="9"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-51478</v>
+        <v>100000</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44796</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7">
-        <v>44762</v>
-      </c>
-      <c r="B6" s="8">
-        <v>184670</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7">
-        <v>44786</v>
-      </c>
-      <c r="G6" s="8">
-        <v>50000</v>
-      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>133192</v>
+        <v>100000</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>34</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A7" s="49"/>
-      <c r="B7" s="16">
-        <v>350</v>
-      </c>
+      <c r="B7" s="16"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="49">
-        <v>44796</v>
-      </c>
-      <c r="G7" s="16">
-        <v>50000</v>
-      </c>
+      <c r="D7" s="51"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>133542</v>
+        <v>100000</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44796</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15">
-        <v>44777</v>
-      </c>
-      <c r="B8" s="16">
-        <v>52298</v>
-      </c>
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="19"/>
       <c r="D8" s="52"/>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>185840</v>
+        <v>100000</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>19</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="53"/>
-      <c r="B9" s="13">
-        <v>150</v>
-      </c>
+      <c r="B9" s="13"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="18" t="s">
-        <v>18</v>
-      </c>
+      <c r="D9" s="18"/>
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>185990</v>
+        <v>100000</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44796</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1301,11 +1259,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>185990</v>
+        <v>100000</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44796</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1317,11 +1275,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>185990</v>
+        <v>100000</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44796</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,11 +1291,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>185990</v>
+        <v>100000</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44796</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1349,11 +1307,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>185990</v>
+        <v>100000</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44796</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1365,11 +1323,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>185990</v>
+        <v>100000</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44796</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,11 +1339,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>185990</v>
+        <v>100000</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44796</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1397,11 +1355,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>185990</v>
+        <v>100000</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44796</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1413,11 +1371,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>185990</v>
+        <v>100000</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44796</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,11 +1387,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>185990</v>
+        <v>100000</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44796</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1445,11 +1403,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>185990</v>
+        <v>100000</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44796</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1461,11 +1419,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>185990</v>
+        <v>100000</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44796</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,11 +1435,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>185990</v>
+        <v>100000</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44796</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1493,11 +1451,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>185990</v>
+        <v>100000</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44796</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1509,11 +1467,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>185990</v>
+        <v>100000</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44796</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,11 +1483,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>185990</v>
+        <v>100000</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44796</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1541,11 +1499,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>185990</v>
+        <v>100000</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44796</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,11 +1515,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>185990</v>
+        <v>100000</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44796</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1573,11 +1531,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>185990</v>
+        <v>100000</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44796</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1589,11 +1547,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>185990</v>
+        <v>100000</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44796</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1605,11 +1563,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>185990</v>
+        <v>100000</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44796</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1621,11 +1579,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>185990</v>
+        <v>100000</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44796</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1637,11 +1595,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>185990</v>
+        <v>100000</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44796</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1653,11 +1611,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>185990</v>
+        <v>100000</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44796</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1669,11 +1627,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>185990</v>
+        <v>100000</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44796</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1686,11 +1644,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>185990</v>
+        <v>100000</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44796</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1711,7 +1669,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>287468</v>
+        <v>100000</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1719,7 +1677,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>101478</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1742,7 +1700,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>185990</v>
+        <v>100000</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>DATE</t>
   </si>
@@ -64,6 +64,15 @@
   </si>
   <si>
     <t>SADHNA PHOTO</t>
+  </si>
+  <si>
+    <t>FEEDING  CHAIR</t>
+  </si>
+  <si>
+    <t>MIX TOYS</t>
+  </si>
+  <si>
+    <t>INSURANCE</t>
   </si>
 </sst>
 </file>
@@ -308,7 +317,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
@@ -423,9 +432,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1101,7 +1107,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1175,67 +1181,87 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7">
+        <v>44824</v>
+      </c>
+      <c r="G5" s="8">
+        <v>50000</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="7">
+        <v>44803</v>
+      </c>
+      <c r="B6" s="8">
+        <v>63975</v>
+      </c>
       <c r="C6" s="50"/>
-      <c r="D6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>100000</v>
+        <v>113975</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44806</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="49">
+        <v>44803</v>
+      </c>
+      <c r="B7" s="16">
+        <v>9325</v>
+      </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="51"/>
+      <c r="D7" s="51" t="s">
+        <v>16</v>
+      </c>
       <c r="F7" s="49"/>
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>100000</v>
+        <v>123300</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44806</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
+      <c r="B8" s="16">
+        <v>200</v>
+      </c>
       <c r="C8" s="19"/>
-      <c r="D8" s="52"/>
+      <c r="D8" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>100000</v>
+        <v>123500</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="53"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
@@ -1243,15 +1269,15 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>100000</v>
+        <v>123500</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="53"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
@@ -1259,15 +1285,15 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>123500</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="53"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="17"/>
       <c r="C11" s="19"/>
       <c r="D11" s="18"/>
@@ -1275,15 +1301,15 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>123500</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="53"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="17"/>
       <c r="C12" s="14"/>
       <c r="D12" s="18"/>
@@ -1291,15 +1317,15 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>123500</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A13" s="53"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
       <c r="D13" s="18"/>
@@ -1307,15 +1333,15 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>123500</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="53"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="17"/>
       <c r="C14" s="14"/>
       <c r="D14" s="18"/>
@@ -1323,15 +1349,15 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>123500</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="53"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="17"/>
       <c r="C15" s="19"/>
       <c r="D15" s="18"/>
@@ -1339,15 +1365,15 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>123500</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="53"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="17"/>
       <c r="C16" s="14"/>
       <c r="D16" s="18"/>
@@ -1355,15 +1381,15 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>123500</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="53"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
       <c r="D17" s="18"/>
@@ -1371,15 +1397,15 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>123500</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="53"/>
+      <c r="A18" s="52"/>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
       <c r="D18" s="18"/>
@@ -1387,15 +1413,15 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>123500</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="53"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="13"/>
       <c r="C19" s="14"/>
       <c r="D19" s="18"/>
@@ -1403,15 +1429,15 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>123500</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="53"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="13"/>
       <c r="C20" s="14"/>
       <c r="D20" s="18"/>
@@ -1419,15 +1445,15 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>123500</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="53"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="13"/>
       <c r="C21" s="14"/>
       <c r="D21" s="18"/>
@@ -1435,15 +1461,15 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>123500</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="53"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="13"/>
       <c r="C22" s="14"/>
       <c r="D22" s="18"/>
@@ -1451,15 +1477,15 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>123500</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A23" s="53"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="13"/>
       <c r="C23" s="14"/>
       <c r="D23" s="18"/>
@@ -1467,15 +1493,15 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>123500</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A24" s="53"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="13"/>
       <c r="C24" s="14"/>
       <c r="D24" s="18"/>
@@ -1483,15 +1509,15 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>123500</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A25" s="53"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="13"/>
       <c r="C25" s="14"/>
       <c r="D25" s="18"/>
@@ -1499,15 +1525,15 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>123500</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="53"/>
+      <c r="A26" s="52"/>
       <c r="B26" s="13"/>
       <c r="C26" s="14"/>
       <c r="D26" s="18"/>
@@ -1515,15 +1541,15 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>123500</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A27" s="53"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
       <c r="D27" s="18"/>
@@ -1531,15 +1557,15 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>123500</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="53"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="13"/>
       <c r="C28" s="14"/>
       <c r="D28" s="18"/>
@@ -1547,15 +1573,15 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>123500</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A29" s="53"/>
+      <c r="A29" s="52"/>
       <c r="B29" s="13"/>
       <c r="C29" s="14"/>
       <c r="D29" s="18"/>
@@ -1563,15 +1589,15 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>123500</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A30" s="53"/>
+      <c r="A30" s="52"/>
       <c r="B30" s="13"/>
       <c r="C30" s="14"/>
       <c r="D30" s="18"/>
@@ -1579,15 +1605,15 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>123500</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A31" s="53"/>
+      <c r="A31" s="52"/>
       <c r="B31" s="13"/>
       <c r="C31" s="14"/>
       <c r="D31" s="18"/>
@@ -1595,15 +1621,15 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>123500</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A32" s="53"/>
+      <c r="A32" s="52"/>
       <c r="B32" s="13"/>
       <c r="C32" s="14"/>
       <c r="D32" s="18"/>
@@ -1611,15 +1637,15 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>123500</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="54"/>
+      <c r="A33" s="53"/>
       <c r="B33" s="13"/>
       <c r="C33" s="14"/>
       <c r="D33" s="18"/>
@@ -1627,15 +1653,15 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>100000</v>
+        <v>123500</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A34" s="55"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="22"/>
       <c r="C34" s="23"/>
       <c r="D34" s="22"/>
@@ -1644,11 +1670,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>123500</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44806</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1669,7 +1695,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>100000</v>
+        <v>173500</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1677,7 +1703,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1700,7 +1726,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>100000</v>
+        <v>123500</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
@@ -2310,7 +2336,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="55" t="s">
         <v>12</v>
       </c>
       <c r="B1" t="s">
@@ -2335,111 +2361,111 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="57">
+      <c r="B3" s="56">
         <v>1140</v>
       </c>
-      <c r="C3" s="59">
+      <c r="C3" s="58">
         <v>43547</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="58"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="57"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="57"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="57"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="58"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="57"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="57"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="57"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="57"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="57"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="57"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -1107,7 +1107,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection sqref="A1:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1215,7 +1215,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1577,7 +1577,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1674,7 +1674,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44824</v>
+        <v>44829</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -1107,7 +1107,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I38"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1215,7 +1215,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1577,7 +1577,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1674,7 +1674,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44829</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>DATE</t>
   </si>
@@ -1107,7 +1107,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1189,11 +1189,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1207,15 +1207,19 @@
       <c r="D6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="7">
+        <v>44840</v>
+      </c>
+      <c r="G6" s="8">
+        <v>50000</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>113975</v>
+        <v>63975</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1233,11 +1237,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>123300</v>
+        <v>73300</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1253,43 +1257,51 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>123500</v>
+        <v>73500</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="52"/>
-      <c r="B9" s="13"/>
+      <c r="B9" s="13">
+        <v>48224</v>
+      </c>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>123500</v>
+        <v>121724</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="52"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="52">
+        <v>44831</v>
+      </c>
+      <c r="B10" s="13">
+        <v>100</v>
+      </c>
       <c r="C10" s="14"/>
-      <c r="D10" s="18"/>
+      <c r="D10" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="F10" s="15"/>
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>123500</v>
+        <v>121824</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1301,11 +1313,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>123500</v>
+        <v>121824</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1317,11 +1329,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>123500</v>
+        <v>121824</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1333,11 +1345,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>123500</v>
+        <v>121824</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1349,11 +1361,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>123500</v>
+        <v>121824</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1365,11 +1377,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>123500</v>
+        <v>121824</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,11 +1393,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>123500</v>
+        <v>121824</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1397,11 +1409,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>123500</v>
+        <v>121824</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1413,11 +1425,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>123500</v>
+        <v>121824</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,11 +1441,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>123500</v>
+        <v>121824</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1445,11 +1457,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>123500</v>
+        <v>121824</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1461,11 +1473,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>123500</v>
+        <v>121824</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,11 +1489,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>123500</v>
+        <v>121824</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1493,11 +1505,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>123500</v>
+        <v>121824</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1509,11 +1521,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>123500</v>
+        <v>121824</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,11 +1537,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>123500</v>
+        <v>121824</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1541,11 +1553,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>123500</v>
+        <v>121824</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,11 +1569,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>123500</v>
+        <v>121824</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1573,11 +1585,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>123500</v>
+        <v>121824</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1589,11 +1601,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>123500</v>
+        <v>121824</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1605,11 +1617,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>123500</v>
+        <v>121824</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1621,11 +1633,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>123500</v>
+        <v>121824</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1637,11 +1649,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>123500</v>
+        <v>121824</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1653,11 +1665,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>123500</v>
+        <v>121824</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1670,11 +1682,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>123500</v>
+        <v>121824</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1695,7 +1707,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>173500</v>
+        <v>221824</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1703,7 +1715,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1726,7 +1738,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>123500</v>
+        <v>121824</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -1107,7 +1107,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44842</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44842</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44842</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44842</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1669,7 +1669,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1686,7 +1686,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44842</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>DATE</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>INSURANCE</t>
+  </si>
+  <si>
+    <t>32*2</t>
+  </si>
+  <si>
+    <t>piggy bank gs</t>
   </si>
 </sst>
 </file>
@@ -1104,10 +1110,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1123,12 +1129,12 @@
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="E1" s="34" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75">
+    <row r="2" spans="1:10" ht="15.75">
       <c r="A2" s="41" t="s">
         <v>11</v>
       </c>
@@ -1139,7 +1145,7 @@
       <c r="F2" s="42"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="16.5" thickBot="1">
+    <row r="3" spans="1:10" ht="16.5" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1148,7 +1154,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+    <row r="4" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1174,7 +1180,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+    <row r="5" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="7"/>
       <c r="B5" s="8">
         <v>100000</v>
@@ -1189,14 +1195,14 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>0</v>
+        <v>-19504</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44846</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+        <v>44853</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="7">
         <v>44803</v>
       </c>
@@ -1215,14 +1221,14 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>63975</v>
+        <v>44471</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
       <c r="A7" s="49">
         <v>44803</v>
       </c>
@@ -1233,18 +1239,22 @@
       <c r="D7" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="49">
+        <v>44853</v>
+      </c>
+      <c r="G7" s="16">
+        <v>19440</v>
+      </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>73300</v>
+        <v>53796</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="15"/>
       <c r="B8" s="16">
         <v>200</v>
@@ -1253,18 +1263,25 @@
       <c r="D8" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
+      <c r="F8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="16">
+        <v>64</v>
+      </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>73500</v>
+        <v>53996</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44846</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44853</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="52"/>
       <c r="B9" s="13">
         <v>48224</v>
@@ -1275,14 +1292,14 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>121724</v>
+        <v>102220</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44846</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44853</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="52">
         <v>44831</v>
       </c>
@@ -1297,14 +1314,14 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>121824</v>
+        <v>102320</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="52"/>
       <c r="B11" s="17"/>
       <c r="C11" s="19"/>
@@ -1313,14 +1330,14 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>121824</v>
+        <v>102320</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44846</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44853</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="52"/>
       <c r="B12" s="17"/>
       <c r="C12" s="14"/>
@@ -1329,14 +1346,14 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>121824</v>
+        <v>102320</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44846</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
+        <v>44853</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A13" s="52"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
@@ -1345,14 +1362,14 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>121824</v>
+        <v>102320</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44846</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44853</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="52"/>
       <c r="B14" s="17"/>
       <c r="C14" s="14"/>
@@ -1361,14 +1378,14 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>121824</v>
+        <v>102320</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44846</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44853</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="52"/>
       <c r="B15" s="17"/>
       <c r="C15" s="19"/>
@@ -1377,14 +1394,14 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>121824</v>
+        <v>102320</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44846</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44853</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="52"/>
       <c r="B16" s="17"/>
       <c r="C16" s="14"/>
@@ -1393,11 +1410,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>121824</v>
+        <v>102320</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44846</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1409,11 +1426,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>121824</v>
+        <v>102320</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44846</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1425,11 +1442,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>121824</v>
+        <v>102320</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44846</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1441,11 +1458,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>121824</v>
+        <v>102320</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44846</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1457,11 +1474,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>121824</v>
+        <v>102320</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44846</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1473,11 +1490,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>121824</v>
+        <v>102320</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44846</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1489,11 +1506,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>121824</v>
+        <v>102320</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44846</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1505,11 +1522,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>121824</v>
+        <v>102320</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44846</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1521,11 +1538,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>121824</v>
+        <v>102320</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44846</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1537,11 +1554,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>121824</v>
+        <v>102320</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44846</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1553,11 +1570,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>121824</v>
+        <v>102320</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44846</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1569,11 +1586,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>121824</v>
+        <v>102320</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44846</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1585,11 +1602,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>121824</v>
+        <v>102320</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44846</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1601,11 +1618,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>121824</v>
+        <v>102320</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44846</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1617,11 +1634,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>121824</v>
+        <v>102320</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44846</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1633,11 +1650,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>121824</v>
+        <v>102320</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44846</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1649,11 +1666,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>121824</v>
+        <v>102320</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44846</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1665,11 +1682,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>121824</v>
+        <v>102320</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44846</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1682,11 +1699,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>121824</v>
+        <v>102320</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44846</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1715,7 +1732,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>100000</v>
+        <v>119504</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1738,7 +1755,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>121824</v>
+        <v>102320</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -1112,8 +1112,8 @@
   </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1195,11 +1195,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-19504</v>
+        <v>-119504</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44853</v>
+        <v>44868</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
@@ -1221,11 +1221,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>44471</v>
+        <v>-55529</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
@@ -1247,11 +1247,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>53796</v>
+        <v>-46204</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1271,11 +1271,11 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>53996</v>
+        <v>-46004</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44853</v>
+        <v>44868</v>
       </c>
       <c r="J8" t="s">
         <v>19</v>
@@ -1288,15 +1288,19 @@
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
+      <c r="F9" s="15">
+        <v>44867</v>
+      </c>
+      <c r="G9" s="16">
+        <v>100000</v>
+      </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>102220</v>
+        <v>2220</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44853</v>
+        <v>44868</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,11 +1318,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>102320</v>
+        <v>2320</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,11 +1334,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>102320</v>
+        <v>2320</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44868</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,11 +1350,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>102320</v>
+        <v>2320</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44868</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1362,11 +1366,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>102320</v>
+        <v>2320</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44868</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,11 +1382,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>102320</v>
+        <v>2320</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44868</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,11 +1398,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>102320</v>
+        <v>2320</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44868</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,11 +1414,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>102320</v>
+        <v>2320</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44868</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,11 +1430,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>102320</v>
+        <v>2320</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44868</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,11 +1446,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>102320</v>
+        <v>2320</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44868</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,11 +1462,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>102320</v>
+        <v>2320</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44868</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,11 +1478,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>102320</v>
+        <v>2320</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44868</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,11 +1494,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>102320</v>
+        <v>2320</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44853</v>
+        <v>44868</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,11 +1510,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>102320</v>
+        <v>2320</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44868</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,11 +1526,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>102320</v>
+        <v>2320</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44868</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,11 +1542,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>102320</v>
+        <v>2320</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44868</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,11 +1558,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>102320</v>
+        <v>2320</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44868</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,11 +1574,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>102320</v>
+        <v>2320</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44868</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,11 +1590,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>102320</v>
+        <v>2320</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44868</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,11 +1606,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>102320</v>
+        <v>2320</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44868</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1618,11 +1622,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>102320</v>
+        <v>2320</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44868</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1634,11 +1638,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>102320</v>
+        <v>2320</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44868</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1650,11 +1654,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>102320</v>
+        <v>2320</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44868</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1666,11 +1670,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>102320</v>
+        <v>2320</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44868</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1682,11 +1686,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>102320</v>
+        <v>2320</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44868</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1699,11 +1703,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>102320</v>
+        <v>2320</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44853</v>
+        <v>44868</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1732,7 +1736,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>119504</v>
+        <v>219504</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1755,7 +1759,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>102320</v>
+        <v>2320</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
@@ -2110,7 +2114,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.95" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="76" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <webPublishItems count="1">
     <webPublishItem id="16596" divId="MEMO BIG_16596" sourceType="sheet" destinationFile="E:\UPDATE\WEBSITE\2084377289testbysam\IMPORTANT\TOY GALLERY.htm" autoRepublish="1"/>
   </webPublishItems>

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>DATE</t>
   </si>
@@ -66,19 +66,7 @@
     <t>SADHNA PHOTO</t>
   </si>
   <si>
-    <t>FEEDING  CHAIR</t>
-  </si>
-  <si>
-    <t>MIX TOYS</t>
-  </si>
-  <si>
-    <t>INSURANCE</t>
-  </si>
-  <si>
     <t>32*2</t>
-  </si>
-  <si>
-    <t>piggy bank gs</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1101,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="A5" sqref="A5:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1182,147 +1170,101 @@
     </row>
     <row r="5" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="7"/>
-      <c r="B5" s="8">
-        <v>100000</v>
-      </c>
+      <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7">
-        <v>44824</v>
-      </c>
-      <c r="G5" s="8">
-        <v>50000</v>
-      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-119504</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44868</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7">
-        <v>44803</v>
-      </c>
-      <c r="B6" s="8">
-        <v>63975</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="50"/>
-      <c r="D6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="7">
-        <v>44840</v>
-      </c>
-      <c r="G6" s="8">
-        <v>50000</v>
-      </c>
+      <c r="D6" s="9"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-55529</v>
+        <v>0</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>65</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49">
-        <v>44803</v>
-      </c>
-      <c r="B7" s="16">
-        <v>9325</v>
-      </c>
+      <c r="A7" s="49"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="49">
-        <v>44853</v>
-      </c>
-      <c r="G7" s="16">
-        <v>19440</v>
-      </c>
+      <c r="D7" s="51"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-46204</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>65</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="16">
-        <v>200</v>
-      </c>
+      <c r="B8" s="16"/>
       <c r="C8" s="19"/>
-      <c r="D8" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="16">
-        <v>64</v>
-      </c>
+      <c r="D8" s="18"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-46004</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44868</v>
+        <v>44879</v>
       </c>
       <c r="J8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="52"/>
-      <c r="B9" s="13">
-        <v>48224</v>
-      </c>
+      <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
-      <c r="F9" s="15">
-        <v>44867</v>
-      </c>
-      <c r="G9" s="16">
-        <v>100000</v>
-      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>2220</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44868</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="52">
-        <v>44831</v>
-      </c>
-      <c r="B10" s="13">
-        <v>100</v>
-      </c>
+      <c r="A10" s="52"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="14"/>
-      <c r="D10" s="18" t="s">
-        <v>18</v>
-      </c>
+      <c r="D10" s="18"/>
       <c r="F10" s="15"/>
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>2320</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1334,11 +1276,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>2320</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44868</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1350,11 +1292,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>2320</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44868</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1366,11 +1308,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>2320</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44868</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1382,11 +1324,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>2320</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44868</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1398,11 +1340,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>2320</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44868</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
@@ -1414,11 +1356,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>2320</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44868</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1430,11 +1372,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>2320</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44868</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1446,11 +1388,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>2320</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44868</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1462,11 +1404,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>2320</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44868</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1478,11 +1420,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>2320</v>
+        <v>0</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44868</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1494,11 +1436,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>2320</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44868</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1510,11 +1452,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>2320</v>
+        <v>0</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44868</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1526,11 +1468,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>2320</v>
+        <v>0</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44868</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1542,11 +1484,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>2320</v>
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44868</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1558,11 +1500,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>2320</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44868</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1574,11 +1516,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>2320</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44868</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1590,11 +1532,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>2320</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44868</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1606,11 +1548,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>2320</v>
+        <v>0</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44868</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1622,11 +1564,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>2320</v>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44868</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1638,11 +1580,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>2320</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44868</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1654,11 +1596,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>2320</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44868</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1670,11 +1612,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>2320</v>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44868</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1686,11 +1628,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>2320</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44868</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1703,11 +1645,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>2320</v>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44868</v>
+        <v>44879</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1728,7 +1670,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>221824</v>
+        <v>0</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1736,7 +1678,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>219504</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1759,7 +1701,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>2320</v>
+        <v>0</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>DATE</t>
   </si>
@@ -66,7 +66,22 @@
     <t>SADHNA PHOTO</t>
   </si>
   <si>
-    <t>32*2</t>
+    <t>INSURANCE</t>
+  </si>
+  <si>
+    <t>KACCHA</t>
+  </si>
+  <si>
+    <t>PAKKA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS </t>
+  </si>
+  <si>
+    <t>HELICOPTER SMALL</t>
+  </si>
+  <si>
+    <t>CARTRTON 4 BIG AND  1  SMALL RECIVED BUT ACCORDING THEM  THEY CHARGED  5 BIG AND 1 SMALL</t>
   </si>
 </sst>
 </file>
@@ -1098,10 +1113,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1117,12 +1132,12 @@
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:15">
       <c r="E1" s="34" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75">
+    <row r="2" spans="1:15" ht="15.75">
       <c r="A2" s="41" t="s">
         <v>11</v>
       </c>
@@ -1133,7 +1148,7 @@
       <c r="F2" s="42"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="16.5" thickBot="1">
+    <row r="3" spans="1:15" ht="16.5" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1142,7 +1157,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
+    <row r="4" spans="1:15" ht="17.25" thickTop="1" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1168,39 +1183,59 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
+    <row r="5" spans="1:15" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A5" s="7">
+        <v>44876</v>
+      </c>
+      <c r="B5" s="8">
+        <v>91376</v>
+      </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="G5" s="8">
+        <v>250</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>0</v>
+        <v>90936</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44879</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
+        <v>11</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
+      <c r="B6" s="8">
+        <v>250</v>
+      </c>
       <c r="C6" s="50"/>
-      <c r="D6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="D6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="8">
+        <v>190</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>0</v>
+        <v>91186</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44879</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
+        <v>44887</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="17.25" thickTop="1" thickBot="1">
       <c r="A7" s="49"/>
       <c r="B7" s="16"/>
       <c r="C7" s="9"/>
@@ -1209,14 +1244,14 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>0</v>
+        <v>91186</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44879</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+        <v>44887</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="19"/>
@@ -1225,17 +1260,14 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>0</v>
+        <v>91186</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44879</v>
-      </c>
-      <c r="J8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+        <v>44887</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="52"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
@@ -1244,14 +1276,14 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>0</v>
+        <v>91186</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44879</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+        <v>44887</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="52"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
@@ -1260,14 +1292,14 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>91186</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+        <v>44887</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="52"/>
       <c r="B11" s="17"/>
       <c r="C11" s="19"/>
@@ -1276,14 +1308,14 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>91186</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+        <v>44887</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="52"/>
       <c r="B12" s="17"/>
       <c r="C12" s="14"/>
@@ -1292,14 +1324,14 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>91186</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
+        <v>44887</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A13" s="52"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
@@ -1308,14 +1340,14 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>91186</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+        <v>44887</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="52"/>
       <c r="B14" s="17"/>
       <c r="C14" s="14"/>
@@ -1324,14 +1356,20 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>91186</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+        <v>44887</v>
+      </c>
+      <c r="N14">
+        <v>91626</v>
+      </c>
+      <c r="O14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="52"/>
       <c r="B15" s="17"/>
       <c r="C15" s="19"/>
@@ -1340,14 +1378,20 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>91186</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+        <v>44887</v>
+      </c>
+      <c r="N15">
+        <v>8073</v>
+      </c>
+      <c r="O15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="52"/>
       <c r="B16" s="17"/>
       <c r="C16" s="14"/>
@@ -1356,11 +1400,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>91186</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1372,11 +1416,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>91186</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1388,11 +1432,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>91186</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1404,11 +1448,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>91186</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1420,11 +1464,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>91186</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1436,11 +1480,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>91186</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1452,11 +1496,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>91186</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1468,11 +1512,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>91186</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1484,11 +1528,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>91186</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1500,11 +1544,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>91186</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1516,11 +1560,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>91186</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1532,11 +1576,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>91186</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1548,11 +1592,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>91186</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1564,11 +1608,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>91186</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1580,11 +1624,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>91186</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1596,11 +1640,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>91186</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1612,11 +1656,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>91186</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1628,11 +1672,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>0</v>
+        <v>91186</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1645,11 +1689,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>91186</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44879</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1670,7 +1714,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>0</v>
+        <v>91626</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1678,7 +1722,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1701,7 +1745,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>0</v>
+        <v>91186</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -1115,8 +1115,8 @@
   </sheetPr>
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1198,11 +1198,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>90936</v>
+        <v>40936</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J5" t="s">
         <v>21</v>
@@ -1225,11 +1225,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>91186</v>
+        <v>41186</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44887</v>
+        <v>44904</v>
       </c>
       <c r="J6" t="s">
         <v>20</v>
@@ -1240,15 +1240,19 @@
       <c r="B7" s="16"/>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="49">
+        <v>44904</v>
+      </c>
+      <c r="G7" s="16">
+        <v>50000</v>
+      </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>91186</v>
+        <v>41186</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44887</v>
+        <v>44904</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
@@ -1260,11 +1264,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>91186</v>
+        <v>41186</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44887</v>
+        <v>44904</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
@@ -1276,11 +1280,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>91186</v>
+        <v>41186</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44887</v>
+        <v>44904</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
@@ -1292,11 +1296,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>91186</v>
+        <v>41186</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44904</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
@@ -1308,11 +1312,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>91186</v>
+        <v>41186</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44904</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
@@ -1324,11 +1328,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>91186</v>
+        <v>41186</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44904</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1340,11 +1344,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>91186</v>
+        <v>41186</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44904</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
@@ -1356,11 +1360,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>91186</v>
+        <v>41186</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44904</v>
       </c>
       <c r="N14">
         <v>91626</v>
@@ -1378,11 +1382,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>91186</v>
+        <v>41186</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44904</v>
       </c>
       <c r="N15">
         <v>8073</v>
@@ -1400,11 +1404,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>91186</v>
+        <v>41186</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44904</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1416,11 +1420,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>91186</v>
+        <v>41186</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44904</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1432,11 +1436,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>91186</v>
+        <v>41186</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44904</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1448,11 +1452,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>91186</v>
+        <v>41186</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44904</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1464,11 +1468,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>91186</v>
+        <v>41186</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44904</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1480,11 +1484,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>91186</v>
+        <v>41186</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44887</v>
+        <v>44904</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1496,11 +1500,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>91186</v>
+        <v>41186</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44904</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1512,11 +1516,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>91186</v>
+        <v>41186</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44904</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1528,11 +1532,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>91186</v>
+        <v>41186</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44904</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1544,11 +1548,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>91186</v>
+        <v>41186</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44904</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1560,11 +1564,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>91186</v>
+        <v>41186</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44904</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1576,11 +1580,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>91186</v>
+        <v>41186</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44904</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1592,11 +1596,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>91186</v>
+        <v>41186</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44904</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1608,11 +1612,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>91186</v>
+        <v>41186</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44904</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1624,11 +1628,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>91186</v>
+        <v>41186</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44904</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1640,11 +1644,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>91186</v>
+        <v>41186</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44904</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1656,11 +1660,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>91186</v>
+        <v>41186</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44904</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1672,11 +1676,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>91186</v>
+        <v>41186</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44904</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1689,11 +1693,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>91186</v>
+        <v>41186</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44887</v>
+        <v>44904</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1722,7 +1726,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>440</v>
+        <v>50440</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1745,7 +1749,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>91186</v>
+        <v>41186</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>DATE</t>
   </si>
@@ -66,22 +66,10 @@
     <t>SADHNA PHOTO</t>
   </si>
   <si>
-    <t>INSURANCE</t>
+    <t>TRANSFER</t>
   </si>
   <si>
-    <t>KACCHA</t>
-  </si>
-  <si>
-    <t>PAKKA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS </t>
-  </si>
-  <si>
-    <t>HELICOPTER SMALL</t>
-  </si>
-  <si>
-    <t>CARTRTON 4 BIG AND  1  SMALL RECIVED BUT ACCORDING THEM  THEY CHARGED  5 BIG AND 1 SMALL</t>
+    <t>insurance of  2 c</t>
   </si>
 </sst>
 </file>
@@ -1113,10 +1101,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1132,12 +1120,12 @@
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:9">
       <c r="E1" s="34" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75">
+    <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="41" t="s">
         <v>11</v>
       </c>
@@ -1148,7 +1136,7 @@
       <c r="F2" s="42"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="16.5" thickBot="1">
+    <row r="3" spans="1:9" ht="16.5" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1157,7 +1145,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="17.25" thickTop="1" thickBot="1">
+    <row r="4" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1183,79 +1171,67 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7">
-        <v>44876</v>
-      </c>
+    <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A5" s="7"/>
       <c r="B5" s="8">
-        <v>91376</v>
+        <v>50000</v>
       </c>
       <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="8">
-        <v>250</v>
-      </c>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>40936</v>
+        <v>50000</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>28</v>
-      </c>
-      <c r="J5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7"/>
+        <v>44915</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A6" s="7">
+        <v>44908</v>
+      </c>
       <c r="B6" s="8">
-        <v>250</v>
+        <v>38137</v>
       </c>
       <c r="C6" s="50"/>
-      <c r="D6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="8">
-        <v>190</v>
-      </c>
+      <c r="D6" s="9"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>41186</v>
+        <v>88137</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44904</v>
-      </c>
-      <c r="J6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="17.25" thickTop="1" thickBot="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A7" s="49"/>
-      <c r="B7" s="16"/>
+      <c r="B7" s="16">
+        <v>100</v>
+      </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="51"/>
-      <c r="F7" s="49">
-        <v>44904</v>
-      </c>
-      <c r="G7" s="16">
-        <v>50000</v>
-      </c>
+      <c r="D7" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>41186</v>
+        <v>88237</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44904</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+        <v>44915</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="19"/>
@@ -1264,14 +1240,14 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>41186</v>
+        <v>88237</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44904</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+        <v>44915</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="52"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
@@ -1280,14 +1256,14 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>41186</v>
+        <v>88237</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44904</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+        <v>44915</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="52"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
@@ -1296,14 +1272,14 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>41186</v>
+        <v>88237</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44904</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+        <v>44915</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="52"/>
       <c r="B11" s="17"/>
       <c r="C11" s="19"/>
@@ -1312,14 +1288,14 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>41186</v>
+        <v>88237</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44904</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+        <v>44915</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="52"/>
       <c r="B12" s="17"/>
       <c r="C12" s="14"/>
@@ -1328,14 +1304,14 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>41186</v>
+        <v>88237</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44904</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
+        <v>44915</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A13" s="52"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
@@ -1344,14 +1320,14 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>41186</v>
+        <v>88237</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44904</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+        <v>44915</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="52"/>
       <c r="B14" s="17"/>
       <c r="C14" s="14"/>
@@ -1360,20 +1336,14 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>41186</v>
+        <v>88237</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44904</v>
-      </c>
-      <c r="N14">
-        <v>91626</v>
-      </c>
-      <c r="O14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+        <v>44915</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="52"/>
       <c r="B15" s="17"/>
       <c r="C15" s="19"/>
@@ -1382,20 +1352,14 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>41186</v>
+        <v>88237</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44904</v>
-      </c>
-      <c r="N15">
-        <v>8073</v>
-      </c>
-      <c r="O15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+        <v>44915</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="52"/>
       <c r="B16" s="17"/>
       <c r="C16" s="14"/>
@@ -1404,11 +1368,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>41186</v>
+        <v>88237</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44904</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1420,11 +1384,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>41186</v>
+        <v>88237</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44904</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1436,11 +1400,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>41186</v>
+        <v>88237</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44904</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1452,11 +1416,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>41186</v>
+        <v>88237</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44904</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1468,11 +1432,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>41186</v>
+        <v>88237</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44904</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1484,11 +1448,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>41186</v>
+        <v>88237</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44904</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1500,11 +1464,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>41186</v>
+        <v>88237</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44904</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1516,11 +1480,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>41186</v>
+        <v>88237</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44904</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1532,11 +1496,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>41186</v>
+        <v>88237</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44904</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1548,11 +1512,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>41186</v>
+        <v>88237</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44904</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1564,11 +1528,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>41186</v>
+        <v>88237</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44904</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1580,11 +1544,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>41186</v>
+        <v>88237</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44904</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1596,11 +1560,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>41186</v>
+        <v>88237</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44904</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1612,11 +1576,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>41186</v>
+        <v>88237</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44904</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1628,11 +1592,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>41186</v>
+        <v>88237</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44904</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1644,11 +1608,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>41186</v>
+        <v>88237</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44904</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1660,11 +1624,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>41186</v>
+        <v>88237</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44904</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1676,11 +1640,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>41186</v>
+        <v>88237</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44904</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1693,11 +1657,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>41186</v>
+        <v>88237</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44904</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1718,7 +1682,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>91626</v>
+        <v>88237</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1726,7 +1690,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>50440</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1749,7 +1713,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>41186</v>
+        <v>88237</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -1104,7 +1104,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1180,15 +1180,19 @@
       <c r="D5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7">
+        <v>44924</v>
+      </c>
+      <c r="G5" s="8">
+        <v>50000</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44915</v>
+        <v>44924</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1204,11 +1208,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>88137</v>
+        <v>38137</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1224,43 +1228,49 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>88237</v>
+        <v>38237</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44915</v>
+        <v>44924</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="15">
+        <v>44919</v>
+      </c>
+      <c r="B8" s="16">
+        <v>44191</v>
+      </c>
       <c r="C8" s="19"/>
       <c r="D8" s="18"/>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>88237</v>
+        <v>82428</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44915</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="52"/>
-      <c r="B9" s="13"/>
+      <c r="B9" s="13">
+        <v>100</v>
+      </c>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>88237</v>
+        <v>82528</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44915</v>
+        <v>44924</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1272,11 +1282,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>88237</v>
+        <v>82528</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44924</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1288,11 +1298,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>88237</v>
+        <v>82528</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44924</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1304,11 +1314,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>88237</v>
+        <v>82528</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44924</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1320,11 +1330,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>88237</v>
+        <v>82528</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44924</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1336,11 +1346,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>88237</v>
+        <v>82528</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44924</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1352,11 +1362,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>88237</v>
+        <v>82528</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44924</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1368,11 +1378,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>88237</v>
+        <v>82528</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44924</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1384,11 +1394,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>88237</v>
+        <v>82528</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44924</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1400,11 +1410,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>88237</v>
+        <v>82528</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44924</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1416,11 +1426,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>88237</v>
+        <v>82528</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44924</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1432,11 +1442,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>88237</v>
+        <v>82528</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44924</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1448,11 +1458,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>88237</v>
+        <v>82528</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44915</v>
+        <v>44924</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1464,11 +1474,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>88237</v>
+        <v>82528</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44924</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1480,11 +1490,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>88237</v>
+        <v>82528</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44924</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1496,11 +1506,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>88237</v>
+        <v>82528</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44924</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1512,11 +1522,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>88237</v>
+        <v>82528</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44924</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1528,11 +1538,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>88237</v>
+        <v>82528</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44924</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1544,11 +1554,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>88237</v>
+        <v>82528</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44924</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1560,11 +1570,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>88237</v>
+        <v>82528</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44924</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1576,11 +1586,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>88237</v>
+        <v>82528</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44924</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1592,11 +1602,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>88237</v>
+        <v>82528</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44924</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1608,11 +1618,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>88237</v>
+        <v>82528</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44924</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1624,11 +1634,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>88237</v>
+        <v>82528</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44924</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1640,11 +1650,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>88237</v>
+        <v>82528</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44924</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1657,11 +1667,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>88237</v>
+        <v>82528</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44915</v>
+        <v>44924</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1682,7 +1692,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>88237</v>
+        <v>132528</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1690,7 +1700,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1713,7 +1723,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>88237</v>
+        <v>82528</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -1104,7 +1104,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1188,11 +1188,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>0</v>
+        <v>-32528</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44924</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1204,15 +1204,19 @@
       </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="7">
+        <v>44930</v>
+      </c>
+      <c r="G6" s="8">
+        <v>8678</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>38137</v>
+        <v>5609</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1224,15 +1228,19 @@
       <c r="D7" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="49">
+        <v>44936</v>
+      </c>
+      <c r="G7" s="16">
+        <v>23850</v>
+      </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>38237</v>
+        <v>5709</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44924</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1248,11 +1256,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>82428</v>
+        <v>49900</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,11 +1274,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>82528</v>
+        <v>50000</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44924</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1282,11 +1290,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>82528</v>
+        <v>50000</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44924</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1298,11 +1306,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>82528</v>
+        <v>50000</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44924</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,11 +1322,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>82528</v>
+        <v>50000</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44924</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1330,11 +1338,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>82528</v>
+        <v>50000</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44924</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,11 +1354,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>82528</v>
+        <v>50000</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44924</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,11 +1370,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>82528</v>
+        <v>50000</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44924</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,11 +1386,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>82528</v>
+        <v>50000</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44924</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,11 +1402,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>82528</v>
+        <v>50000</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44924</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,11 +1418,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>82528</v>
+        <v>50000</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44924</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,11 +1434,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>82528</v>
+        <v>50000</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44924</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,11 +1450,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>82528</v>
+        <v>50000</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44924</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,11 +1466,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>82528</v>
+        <v>50000</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44924</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,11 +1482,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>82528</v>
+        <v>50000</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44924</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,11 +1498,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>82528</v>
+        <v>50000</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44924</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,11 +1514,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>82528</v>
+        <v>50000</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44924</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,11 +1530,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>82528</v>
+        <v>50000</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44924</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,11 +1546,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>82528</v>
+        <v>50000</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44924</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,11 +1562,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>82528</v>
+        <v>50000</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44924</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,11 +1578,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>82528</v>
+        <v>50000</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44924</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,11 +1594,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>82528</v>
+        <v>50000</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44924</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,11 +1610,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>82528</v>
+        <v>50000</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44924</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1618,11 +1626,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>82528</v>
+        <v>50000</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44924</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1634,11 +1642,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>82528</v>
+        <v>50000</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44924</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1650,11 +1658,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>82528</v>
+        <v>50000</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44924</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1667,11 +1675,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>82528</v>
+        <v>50000</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44924</v>
+        <v>44942</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1700,7 +1708,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>50000</v>
+        <v>82528</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1723,7 +1731,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>82528</v>
+        <v>50000</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>DATE</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>insurance of  2 c</t>
+  </si>
+  <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>INSURANCE</t>
   </si>
 </sst>
 </file>
@@ -1104,7 +1110,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1188,11 +1194,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-32528</v>
+        <v>-82528</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1212,11 +1218,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>5609</v>
+        <v>-44391</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1236,11 +1242,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>5709</v>
+        <v>-44291</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1252,15 +1258,19 @@
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="18"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
+      <c r="F8" s="15">
+        <v>44954</v>
+      </c>
+      <c r="G8" s="16">
+        <v>50000</v>
+      </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>49900</v>
+        <v>-100</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1274,123 +1284,151 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="52"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="52">
+        <v>44936</v>
+      </c>
+      <c r="B10" s="13">
+        <v>97603</v>
+      </c>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
       <c r="F10" s="15"/>
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>97603</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="52"/>
-      <c r="B11" s="17"/>
+      <c r="B11" s="17">
+        <v>200</v>
+      </c>
       <c r="C11" s="19"/>
-      <c r="D11" s="18"/>
+      <c r="D11" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="F11" s="15"/>
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>97803</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="52"/>
-      <c r="B12" s="17"/>
+      <c r="A12" s="52">
+        <v>44936</v>
+      </c>
+      <c r="B12" s="17">
+        <v>26765</v>
+      </c>
       <c r="C12" s="14"/>
       <c r="D12" s="18"/>
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>124568</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A13" s="52"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="52">
+        <v>44936</v>
+      </c>
+      <c r="B13" s="13">
+        <v>21723</v>
+      </c>
       <c r="C13" s="14"/>
       <c r="D13" s="18"/>
       <c r="F13" s="12"/>
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>146291</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="52"/>
-      <c r="B14" s="17"/>
+      <c r="B14" s="17">
+        <v>100</v>
+      </c>
       <c r="C14" s="14"/>
-      <c r="D14" s="18"/>
+      <c r="D14" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="F14" s="15"/>
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>146391</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="52"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="52">
+        <v>44940</v>
+      </c>
+      <c r="B15" s="17">
+        <v>5140</v>
+      </c>
       <c r="C15" s="19"/>
       <c r="D15" s="18"/>
       <c r="F15" s="15"/>
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>151531</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="52"/>
-      <c r="B16" s="17"/>
+      <c r="B16" s="17">
+        <v>50</v>
+      </c>
       <c r="C16" s="14"/>
-      <c r="D16" s="18"/>
+      <c r="D16" s="18" t="s">
+        <v>19</v>
+      </c>
       <c r="F16" s="15"/>
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>151581</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1402,11 +1440,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>151581</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1418,11 +1456,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>151581</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1434,11 +1472,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>151581</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1450,11 +1488,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>151581</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1466,11 +1504,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>151581</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1482,11 +1520,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>151581</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1498,11 +1536,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>151581</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1514,11 +1552,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>151581</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1530,11 +1568,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>151581</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1546,11 +1584,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>151581</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1562,11 +1600,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>151581</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1578,11 +1616,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>151581</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1594,11 +1632,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>151581</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1610,11 +1648,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>151581</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1626,11 +1664,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>151581</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1642,11 +1680,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>151581</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1658,11 +1696,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>50000</v>
+        <v>151581</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1675,11 +1713,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>151581</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44942</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1700,7 +1738,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>132528</v>
+        <v>284109</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1708,7 +1746,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>82528</v>
+        <v>132528</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1731,7 +1769,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>50000</v>
+        <v>151581</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -1110,7 +1110,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44956</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44956</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44956</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44956</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1588,7 +1588,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1684,7 +1684,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44956</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>DATE</t>
   </si>
@@ -76,6 +76,21 @@
   </si>
   <si>
     <t>INSURANCE</t>
+  </si>
+  <si>
+    <t>q701</t>
+  </si>
+  <si>
+    <t>18*185</t>
+  </si>
+  <si>
+    <t>gs</t>
+  </si>
+  <si>
+    <t>gun</t>
+  </si>
+  <si>
+    <t>1*145</t>
   </si>
 </sst>
 </file>
@@ -320,7 +335,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
@@ -450,6 +465,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
@@ -1107,10 +1123,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J10" sqref="J10:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1126,12 +1142,12 @@
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="E1" s="34" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75">
+    <row r="2" spans="1:11" ht="15.75">
       <c r="A2" s="41" t="s">
         <v>11</v>
       </c>
@@ -1142,7 +1158,7 @@
       <c r="F2" s="42"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="16.5" thickBot="1">
+    <row r="3" spans="1:11" ht="16.5" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1151,7 +1167,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+    <row r="4" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1177,7 +1193,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+    <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="7"/>
       <c r="B5" s="8">
         <v>50000</v>
@@ -1194,14 +1210,14 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-82528</v>
+        <v>-136003</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44957</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="7">
         <v>44908</v>
       </c>
@@ -1218,14 +1234,14 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-44391</v>
+        <v>-97866</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
       <c r="A7" s="49"/>
       <c r="B7" s="16">
         <v>100</v>
@@ -1242,14 +1258,14 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-44291</v>
+        <v>-97766</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44957</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="15">
         <v>44919</v>
       </c>
@@ -1266,32 +1282,36 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-100</v>
+        <v>-53575</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="52"/>
       <c r="B9" s="13">
         <v>100</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
+      <c r="F9" s="15">
+        <v>44959</v>
+      </c>
+      <c r="G9" s="16">
+        <v>50000</v>
+      </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>0</v>
+        <v>-53475</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44957</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="52">
         <v>44936</v>
       </c>
@@ -1300,18 +1320,28 @@
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
+      <c r="F10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="16">
+        <v>3330</v>
+      </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>97603</v>
+        <v>44128</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="J10" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="59" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+    <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="52"/>
       <c r="B11" s="17">
         <v>200</v>
@@ -1320,18 +1350,28 @@
       <c r="D11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
+      <c r="F11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="16">
+        <v>145</v>
+      </c>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>97803</v>
+        <v>44328</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44959</v>
+      </c>
+      <c r="J11" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="59" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="52">
         <v>44936</v>
       </c>
@@ -1344,14 +1384,14 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>124568</v>
+        <v>71093</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A13" s="52">
         <v>44936</v>
       </c>
@@ -1364,14 +1404,14 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>146291</v>
+        <v>92816</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="52"/>
       <c r="B14" s="17">
         <v>100</v>
@@ -1384,14 +1424,14 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>146391</v>
+        <v>92916</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="52">
         <v>44940</v>
       </c>
@@ -1404,14 +1444,14 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>151531</v>
+        <v>98056</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="52"/>
       <c r="B16" s="17">
         <v>50</v>
@@ -1424,11 +1464,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>151581</v>
+        <v>98106</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1440,11 +1480,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>151581</v>
+        <v>98106</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1456,11 +1496,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>151581</v>
+        <v>98106</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1472,11 +1512,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>151581</v>
+        <v>98106</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1488,11 +1528,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>151581</v>
+        <v>98106</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1504,11 +1544,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>151581</v>
+        <v>98106</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44957</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1520,11 +1560,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>151581</v>
+        <v>98106</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1536,11 +1576,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>151581</v>
+        <v>98106</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1552,11 +1592,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>151581</v>
+        <v>98106</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1568,11 +1608,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>151581</v>
+        <v>98106</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1584,11 +1624,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>151581</v>
+        <v>98106</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1600,11 +1640,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>151581</v>
+        <v>98106</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1616,11 +1656,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>151581</v>
+        <v>98106</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1632,11 +1672,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>151581</v>
+        <v>98106</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1648,11 +1688,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>151581</v>
+        <v>98106</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1664,11 +1704,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>151581</v>
+        <v>98106</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1680,11 +1720,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>151581</v>
+        <v>98106</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1696,11 +1736,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>151581</v>
+        <v>98106</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1713,11 +1753,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>151581</v>
+        <v>98106</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44957</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1746,7 +1786,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>132528</v>
+        <v>186003</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1769,7 +1809,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>151581</v>
+        <v>98106</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>DATE</t>
   </si>
@@ -1126,7 +1126,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10:K11"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44959</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44959</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44959</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J10" s="59" t="s">
         <v>20</v>
@@ -1362,7 +1362,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="J11" s="59" t="s">
         <v>23</v>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1468,39 +1468,47 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="52"/>
-      <c r="B17" s="13"/>
+      <c r="A17" s="52">
+        <v>44957</v>
+      </c>
+      <c r="B17" s="13">
+        <v>41232</v>
+      </c>
       <c r="C17" s="14"/>
       <c r="D17" s="18"/>
       <c r="F17" s="15"/>
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>98106</v>
+        <v>139338</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A18" s="52"/>
-      <c r="B18" s="13"/>
+      <c r="B18" s="13">
+        <v>50</v>
+      </c>
       <c r="C18" s="14"/>
-      <c r="D18" s="18"/>
+      <c r="D18" s="18" t="s">
+        <v>19</v>
+      </c>
       <c r="F18" s="15"/>
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>98106</v>
+        <v>139388</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1512,11 +1520,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>98106</v>
+        <v>139388</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1528,11 +1536,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>98106</v>
+        <v>139388</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1544,11 +1552,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>98106</v>
+        <v>139388</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44959</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1560,11 +1568,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>98106</v>
+        <v>139388</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1576,11 +1584,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>98106</v>
+        <v>139388</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1592,11 +1600,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>98106</v>
+        <v>139388</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1608,11 +1616,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>98106</v>
+        <v>139388</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1624,11 +1632,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>98106</v>
+        <v>139388</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1640,11 +1648,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>98106</v>
+        <v>139388</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1656,11 +1664,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>98106</v>
+        <v>139388</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1672,11 +1680,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>98106</v>
+        <v>139388</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1688,11 +1696,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>98106</v>
+        <v>139388</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1704,11 +1712,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>98106</v>
+        <v>139388</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1720,11 +1728,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>98106</v>
+        <v>139388</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1736,11 +1744,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>98106</v>
+        <v>139388</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44959</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1753,11 +1761,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>98106</v>
+        <v>139388</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44959</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1778,7 +1786,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>284109</v>
+        <v>325391</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1809,7 +1817,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>98106</v>
+        <v>139388</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -1125,8 +1125,8 @@
   </sheetPr>
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1210,11 +1210,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-136003</v>
+        <v>-205663</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44964</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
@@ -1234,11 +1234,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-97866</v>
+        <v>-167526</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
@@ -1258,11 +1258,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-97766</v>
+        <v>-167426</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44964</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1282,11 +1282,11 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-53575</v>
+        <v>-123235</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1304,11 +1304,11 @@
       </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>-53475</v>
+        <v>-123135</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44964</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1328,11 +1328,11 @@
       </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>44128</v>
+        <v>-25532</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J10" s="59" t="s">
         <v>20</v>
@@ -1358,11 +1358,11 @@
       </c>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>44328</v>
+        <v>-25332</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44964</v>
+        <v>44970</v>
       </c>
       <c r="J11" s="59" t="s">
         <v>23</v>
@@ -1380,15 +1380,19 @@
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="18"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
+      <c r="F12" s="15">
+        <v>44599</v>
+      </c>
+      <c r="G12" s="16">
+        <v>50000</v>
+      </c>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>71093</v>
+        <v>1433</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1400,15 +1404,19 @@
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="18"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="13"/>
+      <c r="F13" s="12">
+        <v>44605</v>
+      </c>
+      <c r="G13" s="13">
+        <v>19660</v>
+      </c>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>92816</v>
+        <v>23156</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1424,11 +1432,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>92916</v>
+        <v>23256</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44964</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1444,11 +1452,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>98056</v>
+        <v>28396</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1464,11 +1472,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>98106</v>
+        <v>28446</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44964</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1484,11 +1492,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>139338</v>
+        <v>69678</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1504,11 +1512,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>139388</v>
+        <v>69728</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44964</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1520,11 +1528,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>139388</v>
+        <v>69728</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44964</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1536,11 +1544,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>139388</v>
+        <v>69728</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44964</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1552,11 +1560,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>139388</v>
+        <v>69728</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44964</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1568,11 +1576,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>139388</v>
+        <v>69728</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44964</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1584,11 +1592,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>139388</v>
+        <v>69728</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44964</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1600,11 +1608,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>139388</v>
+        <v>69728</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44964</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1616,11 +1624,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>139388</v>
+        <v>69728</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44964</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1632,11 +1640,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>139388</v>
+        <v>69728</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44964</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1648,11 +1656,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>139388</v>
+        <v>69728</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44964</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1664,11 +1672,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>139388</v>
+        <v>69728</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44964</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1680,11 +1688,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>139388</v>
+        <v>69728</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44964</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1696,11 +1704,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>139388</v>
+        <v>69728</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44964</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1712,11 +1720,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>139388</v>
+        <v>69728</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44964</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1728,11 +1736,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>139388</v>
+        <v>69728</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44964</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1744,11 +1752,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>139388</v>
+        <v>69728</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44964</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1761,11 +1769,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>139388</v>
+        <v>69728</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44964</v>
+        <v>44970</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1794,7 +1802,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>186003</v>
+        <v>255663</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1817,7 +1825,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>139388</v>
+        <v>69728</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>DATE</t>
   </si>
@@ -67,30 +67,6 @@
   </si>
   <si>
     <t>TRANSFER</t>
-  </si>
-  <si>
-    <t>insurance of  2 c</t>
-  </si>
-  <si>
-    <t>insurance</t>
-  </si>
-  <si>
-    <t>INSURANCE</t>
-  </si>
-  <si>
-    <t>q701</t>
-  </si>
-  <si>
-    <t>18*185</t>
-  </si>
-  <si>
-    <t>gs</t>
-  </si>
-  <si>
-    <t>gun</t>
-  </si>
-  <si>
-    <t>1*145</t>
   </si>
 </sst>
 </file>
@@ -1125,8 +1101,8 @@
   </sheetPr>
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection sqref="A1:L38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1202,321 +1178,233 @@
       <c r="D5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="7">
-        <v>44924</v>
-      </c>
-      <c r="G5" s="8">
-        <v>50000</v>
-      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-205663</v>
+        <v>50000</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="7">
-        <v>44908</v>
+        <v>44971</v>
       </c>
       <c r="B6" s="8">
-        <v>38137</v>
+        <v>10180</v>
       </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7">
-        <v>44930</v>
-      </c>
-      <c r="G6" s="8">
-        <v>8678</v>
-      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-167526</v>
+        <v>60180</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>62</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
       <c r="A7" s="49"/>
       <c r="B7" s="16">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="49">
-        <v>44936</v>
-      </c>
-      <c r="G7" s="16">
-        <v>23850</v>
-      </c>
+      <c r="D7" s="51"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-167426</v>
+        <v>60230</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15">
-        <v>44919</v>
-      </c>
-      <c r="B8" s="16">
-        <v>44191</v>
-      </c>
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="19"/>
       <c r="D8" s="18"/>
-      <c r="F8" s="15">
-        <v>44954</v>
-      </c>
-      <c r="G8" s="16">
-        <v>50000</v>
-      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-123235</v>
+        <v>60230</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>51</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="52"/>
-      <c r="B9" s="13">
-        <v>100</v>
-      </c>
+      <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
-      <c r="F9" s="15">
-        <v>44959</v>
-      </c>
-      <c r="G9" s="16">
-        <v>50000</v>
-      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>-123135</v>
+        <v>60230</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="52">
-        <v>44936</v>
-      </c>
-      <c r="B10" s="13">
-        <v>97603</v>
-      </c>
+      <c r="A10" s="52"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
-      <c r="F10" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="16">
-        <v>3330</v>
-      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>-25532</v>
+        <v>60230</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="J10" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="59" t="s">
-        <v>21</v>
-      </c>
+        <v>44975</v>
+      </c>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="52"/>
-      <c r="B11" s="17">
-        <v>200</v>
-      </c>
+      <c r="B11" s="17"/>
       <c r="C11" s="19"/>
-      <c r="D11" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="16">
-        <v>145</v>
-      </c>
+      <c r="D11" s="18"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>-25332</v>
+        <v>60230</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
-      </c>
-      <c r="J11" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="59" t="s">
-        <v>24</v>
-      </c>
+        <v>44975</v>
+      </c>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
     </row>
     <row r="12" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="52">
-        <v>44936</v>
-      </c>
-      <c r="B12" s="17">
-        <v>26765</v>
-      </c>
+      <c r="A12" s="52"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="14"/>
       <c r="D12" s="18"/>
-      <c r="F12" s="15">
-        <v>44599</v>
-      </c>
-      <c r="G12" s="16">
-        <v>50000</v>
-      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>1433</v>
+        <v>60230</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A13" s="52">
-        <v>44936</v>
-      </c>
-      <c r="B13" s="13">
-        <v>21723</v>
-      </c>
+      <c r="A13" s="52"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="14"/>
       <c r="D13" s="18"/>
-      <c r="F13" s="12">
-        <v>44605</v>
-      </c>
-      <c r="G13" s="13">
-        <v>19660</v>
-      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>23156</v>
+        <v>60230</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="52"/>
-      <c r="B14" s="17">
-        <v>100</v>
-      </c>
+      <c r="B14" s="17"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="18" t="s">
-        <v>18</v>
-      </c>
+      <c r="D14" s="18"/>
       <c r="F14" s="15"/>
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>23256</v>
+        <v>60230</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="52">
-        <v>44940</v>
-      </c>
-      <c r="B15" s="17">
-        <v>5140</v>
-      </c>
+      <c r="A15" s="52"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="19"/>
       <c r="D15" s="18"/>
       <c r="F15" s="15"/>
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>28396</v>
+        <v>60230</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="52"/>
-      <c r="B16" s="17">
-        <v>50</v>
-      </c>
+      <c r="B16" s="17"/>
       <c r="C16" s="14"/>
-      <c r="D16" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="D16" s="18"/>
       <c r="F16" s="15"/>
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>28446</v>
+        <v>60230</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="52">
-        <v>44957</v>
-      </c>
-      <c r="B17" s="13">
-        <v>41232</v>
-      </c>
+      <c r="A17" s="52"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="14"/>
       <c r="D17" s="18"/>
       <c r="F17" s="15"/>
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>69678</v>
+        <v>60230</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A18" s="52"/>
-      <c r="B18" s="13">
-        <v>50</v>
-      </c>
+      <c r="B18" s="13"/>
       <c r="C18" s="14"/>
-      <c r="D18" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="D18" s="18"/>
       <c r="F18" s="15"/>
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>69728</v>
+        <v>60230</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1528,11 +1416,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>69728</v>
+        <v>60230</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1544,11 +1432,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>69728</v>
+        <v>60230</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1560,11 +1448,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>69728</v>
+        <v>60230</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1576,11 +1464,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>69728</v>
+        <v>60230</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1592,11 +1480,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>69728</v>
+        <v>60230</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1608,11 +1496,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>69728</v>
+        <v>60230</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1624,11 +1512,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>69728</v>
+        <v>60230</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1640,11 +1528,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>69728</v>
+        <v>60230</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1656,11 +1544,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>69728</v>
+        <v>60230</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1672,11 +1560,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>69728</v>
+        <v>60230</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1688,11 +1576,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>69728</v>
+        <v>60230</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1704,11 +1592,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>69728</v>
+        <v>60230</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1720,11 +1608,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>69728</v>
+        <v>60230</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1736,11 +1624,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>69728</v>
+        <v>60230</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1752,11 +1640,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>69728</v>
+        <v>60230</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1769,11 +1657,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>69728</v>
+        <v>60230</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44970</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1794,7 +1682,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>325391</v>
+        <v>60230</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1802,7 +1690,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>255663</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1825,7 +1713,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>69728</v>
+        <v>60230</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>DATE</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>TRANSFER</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>32 PIECE SET 12*25</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1108,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1178,15 +1184,22 @@
       <c r="D5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="8">
+        <v>300</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>50000</v>
+        <v>49700</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44975</v>
+        <v>44984</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
@@ -1202,11 +1215,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>60180</v>
+        <v>59880</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
@@ -1220,77 +1233,93 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>60230</v>
+        <v>59930</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="15">
+        <v>44974</v>
+      </c>
+      <c r="B8" s="16">
+        <v>74145</v>
+      </c>
       <c r="C8" s="19"/>
-      <c r="D8" s="18"/>
+      <c r="D8" s="18">
+        <v>4</v>
+      </c>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>60230</v>
+        <v>134075</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44975</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="52"/>
-      <c r="B9" s="13"/>
+      <c r="B9" s="13">
+        <v>200</v>
+      </c>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>60230</v>
+        <v>134275</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="52"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="52">
+        <v>44977</v>
+      </c>
+      <c r="B10" s="13">
+        <v>17950</v>
+      </c>
       <c r="C10" s="14"/>
-      <c r="D10" s="18"/>
+      <c r="D10" s="18">
+        <v>1</v>
+      </c>
       <c r="F10" s="15"/>
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>60230</v>
+        <v>152225</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>7</v>
       </c>
       <c r="J10" s="59"/>
       <c r="K10" s="59"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="52"/>
-      <c r="B11" s="17"/>
+      <c r="B11" s="17">
+        <v>50</v>
+      </c>
       <c r="C11" s="19"/>
       <c r="D11" s="18"/>
       <c r="F11" s="15"/>
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>60230</v>
+        <v>152275</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
       <c r="J11" s="59"/>
       <c r="K11" s="59"/>
@@ -1304,11 +1333,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>60230</v>
+        <v>152275</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1320,11 +1349,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>60230</v>
+        <v>152275</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1336,11 +1365,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>60230</v>
+        <v>152275</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1352,11 +1381,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>60230</v>
+        <v>152275</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1368,11 +1397,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>60230</v>
+        <v>152275</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1384,11 +1413,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>60230</v>
+        <v>152275</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1400,11 +1429,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>60230</v>
+        <v>152275</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1416,11 +1445,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>60230</v>
+        <v>152275</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1432,11 +1461,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>60230</v>
+        <v>152275</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1448,11 +1477,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>60230</v>
+        <v>152275</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1464,11 +1493,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>60230</v>
+        <v>152275</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1480,11 +1509,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>60230</v>
+        <v>152275</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1496,11 +1525,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>60230</v>
+        <v>152275</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1512,11 +1541,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>60230</v>
+        <v>152275</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1528,11 +1557,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>60230</v>
+        <v>152275</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1544,11 +1573,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>60230</v>
+        <v>152275</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1560,11 +1589,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>60230</v>
+        <v>152275</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1576,11 +1605,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>60230</v>
+        <v>152275</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1592,11 +1621,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>60230</v>
+        <v>152275</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1608,11 +1637,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>60230</v>
+        <v>152275</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1624,11 +1653,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>60230</v>
+        <v>152275</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1640,11 +1669,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>60230</v>
+        <v>152275</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1657,11 +1686,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>60230</v>
+        <v>152275</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44975</v>
+        <v>44984</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1682,7 +1711,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>60230</v>
+        <v>152575</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1690,7 +1719,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1713,7 +1742,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>60230</v>
+        <v>152275</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>DATE</t>
   </si>
@@ -72,7 +72,10 @@
     <t>GS</t>
   </si>
   <si>
-    <t>32 PIECE SET 12*25</t>
+    <t>CHAIR</t>
+  </si>
+  <si>
+    <t>32 PIECE blocks SET 12*25</t>
   </si>
 </sst>
 </file>
@@ -1108,7 +1111,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1192,14 +1195,14 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>49700</v>
+        <v>-54567</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44984</v>
+        <v>44996</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
@@ -1211,15 +1214,19 @@
       </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="7">
+        <v>44981</v>
+      </c>
+      <c r="G6" s="8">
+        <v>50000</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>59880</v>
+        <v>-44387</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
@@ -1229,15 +1236,19 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="49">
+        <v>44968</v>
+      </c>
+      <c r="G7" s="16">
+        <v>40000</v>
+      </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>59930</v>
+        <v>-44337</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1251,15 +1262,19 @@
       <c r="D8" s="18">
         <v>4</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
+      <c r="F8" s="15">
+        <v>44996</v>
+      </c>
+      <c r="G8" s="16">
+        <v>14267</v>
+      </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>134075</v>
+        <v>29808</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1273,11 +1288,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>134275</v>
+        <v>30008</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1295,11 +1310,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>152225</v>
+        <v>47958</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="J10" s="59"/>
       <c r="K10" s="59"/>
@@ -1315,45 +1330,53 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>152275</v>
+        <v>48008</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
       <c r="J11" s="59"/>
       <c r="K11" s="59"/>
     </row>
     <row r="12" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="52"/>
-      <c r="B12" s="17"/>
+      <c r="B12" s="17">
+        <v>5140</v>
+      </c>
       <c r="C12" s="14"/>
-      <c r="D12" s="18"/>
+      <c r="D12" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>152275</v>
+        <v>53148</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A13" s="52"/>
-      <c r="B13" s="13"/>
+      <c r="B13" s="13">
+        <v>50</v>
+      </c>
       <c r="C13" s="14"/>
-      <c r="D13" s="18"/>
+      <c r="D13" s="18">
+        <v>1</v>
+      </c>
       <c r="F13" s="12"/>
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>152275</v>
+        <v>53198</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1365,11 +1388,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>152275</v>
+        <v>53198</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,11 +1404,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>152275</v>
+        <v>53198</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1397,11 +1420,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>152275</v>
+        <v>53198</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1413,11 +1436,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>152275</v>
+        <v>53198</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,11 +1452,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>152275</v>
+        <v>53198</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1445,11 +1468,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>152275</v>
+        <v>53198</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1461,11 +1484,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>152275</v>
+        <v>53198</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,11 +1500,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>152275</v>
+        <v>53198</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1493,11 +1516,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>152275</v>
+        <v>53198</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1509,11 +1532,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>152275</v>
+        <v>53198</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,11 +1548,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>152275</v>
+        <v>53198</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1541,11 +1564,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>152275</v>
+        <v>53198</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,11 +1580,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>152275</v>
+        <v>53198</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1573,11 +1596,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>152275</v>
+        <v>53198</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1589,11 +1612,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>152275</v>
+        <v>53198</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1605,11 +1628,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>152275</v>
+        <v>53198</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1621,11 +1644,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>152275</v>
+        <v>53198</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1637,11 +1660,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>152275</v>
+        <v>53198</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1653,11 +1676,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>152275</v>
+        <v>53198</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1669,11 +1692,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>152275</v>
+        <v>53198</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1686,11 +1709,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>152275</v>
+        <v>53198</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44984</v>
+        <v>44996</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1711,7 +1734,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>152575</v>
+        <v>157765</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1719,7 +1742,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>300</v>
+        <v>104567</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1742,7 +1765,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>152275</v>
+        <v>53198</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -1111,7 +1111,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F8" sqref="F8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1195,11 +1195,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-54567</v>
+        <v>-14567</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44996</v>
+        <v>44998</v>
       </c>
       <c r="J5" t="s">
         <v>19</v>
@@ -1222,11 +1222,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-44387</v>
+        <v>-4387</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
@@ -1236,19 +1236,19 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49">
-        <v>44968</v>
+      <c r="F7" s="15">
+        <v>44996</v>
       </c>
       <c r="G7" s="16">
-        <v>40000</v>
+        <v>14267</v>
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-44337</v>
+        <v>-4337</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1262,19 +1262,15 @@
       <c r="D8" s="18">
         <v>4</v>
       </c>
-      <c r="F8" s="15">
-        <v>44996</v>
-      </c>
-      <c r="G8" s="16">
-        <v>14267</v>
-      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>29808</v>
+        <v>69808</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1288,11 +1284,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>30008</v>
+        <v>70008</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1310,11 +1306,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>47958</v>
+        <v>87958</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J10" s="59"/>
       <c r="K10" s="59"/>
@@ -1330,11 +1326,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>48008</v>
+        <v>88008</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44998</v>
       </c>
       <c r="J11" s="59"/>
       <c r="K11" s="59"/>
@@ -1352,11 +1348,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>53148</v>
+        <v>93148</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1372,11 +1368,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>53198</v>
+        <v>93198</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1388,11 +1384,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>53198</v>
+        <v>93198</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1404,11 +1400,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>53198</v>
+        <v>93198</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1420,11 +1416,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>53198</v>
+        <v>93198</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1436,11 +1432,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>53198</v>
+        <v>93198</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1452,11 +1448,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>53198</v>
+        <v>93198</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1468,11 +1464,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>53198</v>
+        <v>93198</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1484,11 +1480,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>53198</v>
+        <v>93198</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1500,11 +1496,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>53198</v>
+        <v>93198</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1516,11 +1512,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>53198</v>
+        <v>93198</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1532,11 +1528,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>53198</v>
+        <v>93198</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1548,11 +1544,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>53198</v>
+        <v>93198</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1564,11 +1560,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>53198</v>
+        <v>93198</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1580,11 +1576,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>53198</v>
+        <v>93198</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1596,11 +1592,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>53198</v>
+        <v>93198</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1612,11 +1608,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>53198</v>
+        <v>93198</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1628,11 +1624,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>53198</v>
+        <v>93198</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1644,11 +1640,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>53198</v>
+        <v>93198</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1660,11 +1656,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>53198</v>
+        <v>93198</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1676,11 +1672,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>53198</v>
+        <v>93198</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1692,11 +1688,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>53198</v>
+        <v>93198</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1709,11 +1705,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>53198</v>
+        <v>93198</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44996</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1742,7 +1738,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>104567</v>
+        <v>64567</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1765,7 +1761,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>53198</v>
+        <v>93198</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>DATE</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>32 PIECE blocks SET 12*25</t>
+  </si>
+  <si>
+    <t>GS  K.SET</t>
+  </si>
+  <si>
+    <t>GS PIZZA SE</t>
   </si>
 </sst>
 </file>
@@ -1111,7 +1117,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:G8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1195,11 +1201,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-14567</v>
+        <v>-58177</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44998</v>
+        <v>45017</v>
       </c>
       <c r="J5" t="s">
         <v>19</v>
@@ -1222,11 +1228,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-4387</v>
+        <v>-47997</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
@@ -1244,11 +1250,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-4337</v>
+        <v>-47947</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44998</v>
+        <v>45017</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1262,15 +1268,19 @@
       <c r="D8" s="18">
         <v>4</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
+      <c r="F8" s="15">
+        <v>45002</v>
+      </c>
+      <c r="G8" s="16">
+        <v>43200</v>
+      </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>69808</v>
+        <v>26198</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1280,15 +1290,19 @@
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
+      <c r="F9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="16">
+        <v>90</v>
+      </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>70008</v>
+        <v>26398</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44998</v>
+        <v>45017</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1302,15 +1316,19 @@
       <c r="D10" s="18">
         <v>1</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
+      <c r="F10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="16">
+        <v>320</v>
+      </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>87958</v>
+        <v>44348</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J10" s="59"/>
       <c r="K10" s="59"/>
@@ -1326,11 +1344,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>88008</v>
+        <v>44398</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45017</v>
       </c>
       <c r="J11" s="59"/>
       <c r="K11" s="59"/>
@@ -1348,11 +1366,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>93148</v>
+        <v>49538</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45017</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1368,43 +1386,51 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>93198</v>
+        <v>49588</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45017</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="52"/>
-      <c r="B14" s="17"/>
+      <c r="A14" s="52">
+        <v>45002</v>
+      </c>
+      <c r="B14" s="17">
+        <v>64962</v>
+      </c>
       <c r="C14" s="14"/>
       <c r="D14" s="18"/>
       <c r="F14" s="15"/>
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>93198</v>
+        <v>114550</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="52"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="52">
+        <v>45002</v>
+      </c>
+      <c r="B15" s="17">
+        <v>28288</v>
+      </c>
       <c r="C15" s="19"/>
       <c r="D15" s="18"/>
       <c r="F15" s="15"/>
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>93198</v>
+        <v>142838</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1416,11 +1442,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>93198</v>
+        <v>142838</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45017</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1432,11 +1458,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>93198</v>
+        <v>142838</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45017</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1448,11 +1474,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>93198</v>
+        <v>142838</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45017</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1464,11 +1490,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>93198</v>
+        <v>142838</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45017</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1480,11 +1506,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>93198</v>
+        <v>142838</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45017</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1496,11 +1522,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>93198</v>
+        <v>142838</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44998</v>
+        <v>45017</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1512,11 +1538,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>93198</v>
+        <v>142838</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45017</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1528,11 +1554,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>93198</v>
+        <v>142838</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45017</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1544,11 +1570,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>93198</v>
+        <v>142838</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45017</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1560,11 +1586,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>93198</v>
+        <v>142838</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45017</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1576,11 +1602,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>93198</v>
+        <v>142838</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45017</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1592,11 +1618,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>93198</v>
+        <v>142838</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45017</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1608,11 +1634,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>93198</v>
+        <v>142838</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45017</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1624,11 +1650,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>93198</v>
+        <v>142838</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45017</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1640,11 +1666,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>93198</v>
+        <v>142838</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45017</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1656,11 +1682,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>93198</v>
+        <v>142838</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45017</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1672,11 +1698,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>93198</v>
+        <v>142838</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45017</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1688,11 +1714,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>93198</v>
+        <v>142838</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44998</v>
+        <v>45017</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1705,11 +1731,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>93198</v>
+        <v>142838</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44998</v>
+        <v>45017</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1730,7 +1756,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>157765</v>
+        <v>251015</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1738,7 +1764,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>64567</v>
+        <v>108177</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1761,7 +1787,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>93198</v>
+        <v>142838</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -1116,7 +1116,7 @@
   </sheetPr>
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>45017</v>
+        <v>45020</v>
       </c>
       <c r="J5" t="s">
         <v>19</v>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
@@ -1254,7 +1254,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45017</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45017</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J10" s="59"/>
       <c r="K10" s="59"/>
@@ -1348,7 +1348,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45017</v>
+        <v>45020</v>
       </c>
       <c r="J11" s="59"/>
       <c r="K11" s="59"/>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45017</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45017</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1400,17 +1400,19 @@
       <c r="B14" s="17">
         <v>64962</v>
       </c>
-      <c r="C14" s="14"/>
+      <c r="C14" s="14">
+        <v>200</v>
+      </c>
       <c r="D14" s="18"/>
       <c r="F14" s="15"/>
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>114550</v>
+        <v>114750</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1420,49 +1422,57 @@
       <c r="B15" s="17">
         <v>28288</v>
       </c>
-      <c r="C15" s="19"/>
+      <c r="C15" s="19">
+        <v>200</v>
+      </c>
       <c r="D15" s="18"/>
       <c r="F15" s="15"/>
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>142838</v>
+        <v>143238</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="52"/>
-      <c r="B16" s="17"/>
+      <c r="A16" s="52">
+        <v>45016</v>
+      </c>
+      <c r="B16" s="17">
+        <v>19510</v>
+      </c>
       <c r="C16" s="14"/>
       <c r="D16" s="18"/>
       <c r="F16" s="15"/>
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>142838</v>
+        <v>162748</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45017</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A17" s="52"/>
-      <c r="B17" s="13"/>
+      <c r="B17" s="13">
+        <v>50</v>
+      </c>
       <c r="C17" s="14"/>
       <c r="D17" s="18"/>
       <c r="F17" s="15"/>
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>142838</v>
+        <v>162798</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45017</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,11 +1484,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>142838</v>
+        <v>162798</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45017</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,11 +1500,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>142838</v>
+        <v>162798</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45017</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,11 +1516,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>142838</v>
+        <v>162798</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45017</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,11 +1532,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>142838</v>
+        <v>162798</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45017</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,11 +1548,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>142838</v>
+        <v>162798</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45017</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,11 +1564,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>142838</v>
+        <v>162798</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45017</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,11 +1580,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>142838</v>
+        <v>162798</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45017</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,11 +1596,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>142838</v>
+        <v>162798</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45017</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,11 +1612,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>142838</v>
+        <v>162798</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45017</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1618,11 +1628,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>142838</v>
+        <v>162798</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45017</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1634,11 +1644,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>142838</v>
+        <v>162798</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45017</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1650,11 +1660,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>142838</v>
+        <v>162798</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45017</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1666,11 +1676,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>142838</v>
+        <v>162798</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45017</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1682,11 +1692,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>142838</v>
+        <v>162798</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45017</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1698,11 +1708,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>142838</v>
+        <v>162798</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45017</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1714,11 +1724,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>142838</v>
+        <v>162798</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45017</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1731,11 +1741,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>142838</v>
+        <v>162798</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45017</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1756,7 +1766,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>251015</v>
+        <v>270975</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1787,7 +1797,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>142838</v>
+        <v>162798</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>DATE</t>
   </si>
@@ -82,6 +82,15 @@
   </si>
   <si>
     <t>GS PIZZA SE</t>
+  </si>
+  <si>
+    <t>INSRANCE</t>
+  </si>
+  <si>
+    <t>290*2 CACTUS</t>
+  </si>
+  <si>
+    <t>GREEN LAZER 10*145</t>
   </si>
 </sst>
 </file>
@@ -1117,7 +1126,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1201,11 +1210,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-58177</v>
+        <v>-205347</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>45020</v>
+        <v>45041</v>
       </c>
       <c r="J5" t="s">
         <v>19</v>
@@ -1228,11 +1237,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-47997</v>
+        <v>-195167</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
@@ -1250,11 +1259,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-47947</v>
+        <v>-195117</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45020</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1276,11 +1285,11 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>26198</v>
+        <v>-120972</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1298,11 +1307,11 @@
       </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>26398</v>
+        <v>-120772</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45020</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1324,11 +1333,11 @@
       </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>44348</v>
+        <v>-102822</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="J10" s="59"/>
       <c r="K10" s="59"/>
@@ -1340,15 +1349,19 @@
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="18"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
+      <c r="F11" s="15">
+        <v>45023</v>
+      </c>
+      <c r="G11" s="16">
+        <v>50000</v>
+      </c>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>44398</v>
+        <v>-102772</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45041</v>
       </c>
       <c r="J11" s="59"/>
       <c r="K11" s="59"/>
@@ -1362,15 +1375,19 @@
       <c r="D12" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
+      <c r="F12" s="15">
+        <v>45030</v>
+      </c>
+      <c r="G12" s="16">
+        <v>45140</v>
+      </c>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>49538</v>
+        <v>-97632</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1382,15 +1399,19 @@
       <c r="D13" s="18">
         <v>1</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="13"/>
+      <c r="F13" s="12">
+        <v>45040</v>
+      </c>
+      <c r="G13" s="13">
+        <v>50000</v>
+      </c>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>49588</v>
+        <v>-97582</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1405,14 +1426,19 @@
       </c>
       <c r="D14" s="18"/>
       <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
+      <c r="G14" s="16">
+        <v>580</v>
+      </c>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>114750</v>
+        <v>-32420</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>39</v>
+      </c>
+      <c r="J14" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1427,14 +1453,19 @@
       </c>
       <c r="D15" s="18"/>
       <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
+      <c r="G15" s="16">
+        <v>1450</v>
+      </c>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>143238</v>
+        <v>-3932</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>39</v>
+      </c>
+      <c r="J15" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1450,11 +1481,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>162748</v>
+        <v>15578</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1468,59 +1499,71 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>162798</v>
+        <v>15628</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="52"/>
-      <c r="B18" s="13"/>
+      <c r="A18" s="52">
+        <v>45031</v>
+      </c>
+      <c r="B18" s="13">
+        <v>88846</v>
+      </c>
       <c r="C18" s="14"/>
       <c r="D18" s="18"/>
       <c r="F18" s="15"/>
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>162798</v>
+        <v>104474</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="52"/>
-      <c r="B19" s="13"/>
+      <c r="A19" s="52">
+        <v>45031</v>
+      </c>
+      <c r="B19" s="13">
+        <v>21211</v>
+      </c>
       <c r="C19" s="14"/>
       <c r="D19" s="18"/>
       <c r="F19" s="15"/>
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>162798</v>
+        <v>125685</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A20" s="52"/>
-      <c r="B20" s="13"/>
+      <c r="B20" s="13">
+        <v>250</v>
+      </c>
       <c r="C20" s="14"/>
-      <c r="D20" s="18"/>
+      <c r="D20" s="18" t="s">
+        <v>22</v>
+      </c>
       <c r="F20" s="15"/>
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>162798</v>
+        <v>125935</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1532,11 +1575,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>162798</v>
+        <v>125935</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45020</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1548,11 +1591,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>162798</v>
+        <v>125935</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1564,11 +1607,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>162798</v>
+        <v>125935</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1580,11 +1623,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>162798</v>
+        <v>125935</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1596,11 +1639,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>162798</v>
+        <v>125935</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1612,11 +1655,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>162798</v>
+        <v>125935</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1628,11 +1671,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>162798</v>
+        <v>125935</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1644,11 +1687,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>162798</v>
+        <v>125935</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1660,11 +1703,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>162798</v>
+        <v>125935</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1676,11 +1719,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>162798</v>
+        <v>125935</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1692,11 +1735,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>162798</v>
+        <v>125935</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1708,11 +1751,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>162798</v>
+        <v>125935</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1724,11 +1767,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>162798</v>
+        <v>125935</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1741,11 +1784,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>162798</v>
+        <v>125935</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45020</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1766,7 +1809,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>270975</v>
+        <v>381282</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1774,7 +1817,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>108177</v>
+        <v>255347</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1797,7 +1840,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>162798</v>
+        <v>125935</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -1126,7 +1126,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1210,11 +1210,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-205347</v>
+        <v>-255347</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>45041</v>
+        <v>45051</v>
       </c>
       <c r="J5" t="s">
         <v>19</v>
@@ -1237,11 +1237,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-195167</v>
+        <v>-245167</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
@@ -1259,11 +1259,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-195117</v>
+        <v>-245117</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45041</v>
+        <v>45051</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1285,11 +1285,11 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-120972</v>
+        <v>-170972</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1307,11 +1307,11 @@
       </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>-120772</v>
+        <v>-170772</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45041</v>
+        <v>45051</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,11 +1333,11 @@
       </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>-102822</v>
+        <v>-152822</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="J10" s="59"/>
       <c r="K10" s="59"/>
@@ -1357,11 +1357,11 @@
       </c>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>-102772</v>
+        <v>-152772</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45041</v>
+        <v>45051</v>
       </c>
       <c r="J11" s="59"/>
       <c r="K11" s="59"/>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>-97632</v>
+        <v>-147632</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45041</v>
+        <v>45051</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1407,11 +1407,11 @@
       </c>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>-97582</v>
+        <v>-147582</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45041</v>
+        <v>45051</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1431,11 +1431,11 @@
       </c>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>-32420</v>
+        <v>-82420</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J14" t="s">
         <v>23</v>
@@ -1458,11 +1458,11 @@
       </c>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>-3932</v>
+        <v>-53932</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J15" t="s">
         <v>24</v>
@@ -1477,15 +1477,19 @@
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="18"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16"/>
+      <c r="F16" s="15">
+        <v>45048</v>
+      </c>
+      <c r="G16" s="16">
+        <v>50000</v>
+      </c>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>15578</v>
+        <v>-34422</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1499,11 +1503,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>15628</v>
+        <v>-34372</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45041</v>
+        <v>45051</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1519,11 +1523,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>104474</v>
+        <v>54474</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1539,11 +1543,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>125685</v>
+        <v>75685</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1559,27 +1563,29 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>125935</v>
+        <v>75935</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45041</v>
+        <v>45051</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A21" s="52"/>
-      <c r="B21" s="13"/>
+      <c r="B21" s="13">
+        <v>42504</v>
+      </c>
       <c r="C21" s="14"/>
       <c r="D21" s="18"/>
       <c r="F21" s="15"/>
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>125935</v>
+        <v>118439</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45041</v>
+        <v>45051</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1591,11 +1597,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>125935</v>
+        <v>118439</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45041</v>
+        <v>45051</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1607,11 +1613,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>125935</v>
+        <v>118439</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45041</v>
+        <v>45051</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1623,11 +1629,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>125935</v>
+        <v>118439</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45041</v>
+        <v>45051</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1639,11 +1645,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>125935</v>
+        <v>118439</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45041</v>
+        <v>45051</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1655,11 +1661,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>125935</v>
+        <v>118439</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45041</v>
+        <v>45051</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1671,11 +1677,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>125935</v>
+        <v>118439</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45041</v>
+        <v>45051</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1687,11 +1693,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>125935</v>
+        <v>118439</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45041</v>
+        <v>45051</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1703,11 +1709,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>125935</v>
+        <v>118439</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45041</v>
+        <v>45051</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1719,11 +1725,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>125935</v>
+        <v>118439</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45041</v>
+        <v>45051</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1735,11 +1741,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>125935</v>
+        <v>118439</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45041</v>
+        <v>45051</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1751,11 +1757,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>125935</v>
+        <v>118439</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45041</v>
+        <v>45051</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1767,11 +1773,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>125935</v>
+        <v>118439</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45041</v>
+        <v>45051</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1784,11 +1790,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>125935</v>
+        <v>118439</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45041</v>
+        <v>45051</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1809,7 +1815,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>381282</v>
+        <v>423786</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1817,7 +1823,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>255347</v>
+        <v>305347</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1840,7 +1846,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>125935</v>
+        <v>118439</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -87,10 +87,10 @@
     <t>INSRANCE</t>
   </si>
   <si>
-    <t>290*2 CACTUS</t>
+    <t>cal mistake on 2-5-23</t>
   </si>
   <si>
-    <t>GREEN LAZER 10*145</t>
+    <t>item no 1 cactus</t>
   </si>
 </sst>
 </file>
@@ -1126,7 +1126,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1210,11 +1210,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-255347</v>
+        <v>-369502</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>45051</v>
+        <v>45056</v>
       </c>
       <c r="J5" t="s">
         <v>19</v>
@@ -1237,11 +1237,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-245167</v>
+        <v>-359322</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
@@ -1259,11 +1259,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-245117</v>
+        <v>-359272</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45051</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1285,11 +1285,11 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-170972</v>
+        <v>-285127</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1307,11 +1307,11 @@
       </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>-170772</v>
+        <v>-284927</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45051</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,11 +1333,11 @@
       </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>-152822</v>
+        <v>-266977</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J10" s="59"/>
       <c r="K10" s="59"/>
@@ -1357,11 +1357,11 @@
       </c>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>-152772</v>
+        <v>-266927</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45051</v>
+        <v>45056</v>
       </c>
       <c r="J11" s="59"/>
       <c r="K11" s="59"/>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>-147632</v>
+        <v>-261787</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45051</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1407,11 +1407,11 @@
       </c>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>-147582</v>
+        <v>-261737</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45051</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1425,20 +1425,19 @@
         <v>200</v>
       </c>
       <c r="D14" s="18"/>
-      <c r="F14" s="15"/>
+      <c r="F14" s="15">
+        <v>45048</v>
+      </c>
       <c r="G14" s="16">
-        <v>580</v>
+        <v>50000</v>
       </c>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>-82420</v>
+        <v>-196575</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="J14" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1452,20 +1451,19 @@
         <v>200</v>
       </c>
       <c r="D15" s="18"/>
-      <c r="F15" s="15"/>
+      <c r="F15" s="15">
+        <v>45052</v>
+      </c>
       <c r="G15" s="16">
-        <v>1450</v>
+        <v>41185</v>
       </c>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>-53932</v>
+        <v>-168087</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="J15" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1478,39 +1476,46 @@
       <c r="C16" s="14"/>
       <c r="D16" s="18"/>
       <c r="F16" s="15">
-        <v>45048</v>
+        <v>45052</v>
       </c>
       <c r="G16" s="16">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>-34422</v>
+        <v>-148577</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A17" s="52"/>
       <c r="B17" s="13">
         <v>50</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="18"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16"/>
+      <c r="F17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="16">
+        <v>5000</v>
+      </c>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>-34372</v>
+        <v>-148527</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45051</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>45056</v>
+      </c>
+      <c r="J17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A18" s="52">
         <v>45031</v>
       </c>
@@ -1523,14 +1528,14 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>54474</v>
+        <v>-59681</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="52">
         <v>45031</v>
       </c>
@@ -1543,14 +1548,14 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>75685</v>
+        <v>-38470</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A20" s="52"/>
       <c r="B20" s="13">
         <v>250</v>
@@ -1563,15 +1568,17 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>75935</v>
+        <v>-38220</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45051</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="52"/>
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A21" s="52">
+        <v>45048</v>
+      </c>
       <c r="B21" s="13">
         <v>42504</v>
       </c>
@@ -1581,14 +1588,14 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>118439</v>
+        <v>4284</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45051</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A22" s="52"/>
       <c r="B22" s="13"/>
       <c r="C22" s="14"/>
@@ -1597,14 +1604,14 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>118439</v>
+        <v>4284</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45051</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A23" s="52"/>
       <c r="B23" s="13"/>
       <c r="C23" s="14"/>
@@ -1613,14 +1620,14 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>118439</v>
+        <v>4284</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45051</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A24" s="52"/>
       <c r="B24" s="13"/>
       <c r="C24" s="14"/>
@@ -1629,14 +1636,14 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>118439</v>
+        <v>4284</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45051</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A25" s="52"/>
       <c r="B25" s="13"/>
       <c r="C25" s="14"/>
@@ -1645,14 +1652,14 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>118439</v>
+        <v>4284</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45051</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A26" s="52"/>
       <c r="B26" s="13"/>
       <c r="C26" s="14"/>
@@ -1661,14 +1668,14 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>118439</v>
+        <v>4284</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45051</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="52"/>
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
@@ -1677,14 +1684,14 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>118439</v>
+        <v>4284</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45051</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A28" s="52"/>
       <c r="B28" s="13"/>
       <c r="C28" s="14"/>
@@ -1693,14 +1700,14 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>118439</v>
+        <v>4284</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45051</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A29" s="52"/>
       <c r="B29" s="13"/>
       <c r="C29" s="14"/>
@@ -1709,14 +1716,14 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>118439</v>
+        <v>4284</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45051</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A30" s="52"/>
       <c r="B30" s="13"/>
       <c r="C30" s="14"/>
@@ -1725,14 +1732,14 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>118439</v>
+        <v>4284</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45051</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A31" s="52"/>
       <c r="B31" s="13"/>
       <c r="C31" s="14"/>
@@ -1741,14 +1748,14 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>118439</v>
+        <v>4284</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45051</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="A32" s="52"/>
       <c r="B32" s="13"/>
       <c r="C32" s="14"/>
@@ -1757,11 +1764,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>118439</v>
+        <v>4284</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45051</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1773,11 +1780,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>118439</v>
+        <v>4284</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45051</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1790,11 +1797,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>118439</v>
+        <v>4284</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45051</v>
+        <v>45056</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1823,7 +1830,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>305347</v>
+        <v>419502</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1846,7 +1853,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>118439</v>
+        <v>4284</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>DATE</t>
   </si>
@@ -64,33 +64,6 @@
   </si>
   <si>
     <t>SADHNA PHOTO</t>
-  </si>
-  <si>
-    <t>TRANSFER</t>
-  </si>
-  <si>
-    <t>GS</t>
-  </si>
-  <si>
-    <t>CHAIR</t>
-  </si>
-  <si>
-    <t>32 PIECE blocks SET 12*25</t>
-  </si>
-  <si>
-    <t>GS  K.SET</t>
-  </si>
-  <si>
-    <t>GS PIZZA SE</t>
-  </si>
-  <si>
-    <t>INSRANCE</t>
-  </si>
-  <si>
-    <t>cal mistake on 2-5-23</t>
-  </si>
-  <si>
-    <t>item no 1 cactus</t>
   </si>
 </sst>
 </file>
@@ -1126,7 +1099,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1195,407 +1168,281 @@
     </row>
     <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="7"/>
-      <c r="B5" s="8">
-        <v>50000</v>
-      </c>
+      <c r="B5" s="8"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="8">
-        <v>300</v>
-      </c>
+      <c r="D5" s="9"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-369502</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>45056</v>
-      </c>
-      <c r="J5" t="s">
-        <v>19</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7">
-        <v>44971</v>
-      </c>
-      <c r="B6" s="8">
-        <v>10180</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7">
-        <v>44981</v>
-      </c>
-      <c r="G6" s="8">
-        <v>50000</v>
-      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-359322</v>
+        <v>0</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>85</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
       <c r="A7" s="49"/>
-      <c r="B7" s="16">
-        <v>50</v>
-      </c>
+      <c r="B7" s="16"/>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="15">
-        <v>44996</v>
-      </c>
-      <c r="G7" s="16">
-        <v>14267</v>
-      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-359272</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45056</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15">
-        <v>44974</v>
-      </c>
-      <c r="B8" s="16">
-        <v>74145</v>
-      </c>
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="19"/>
-      <c r="D8" s="18">
-        <v>4</v>
-      </c>
-      <c r="F8" s="15">
-        <v>45002</v>
-      </c>
-      <c r="G8" s="16">
-        <v>43200</v>
-      </c>
+      <c r="D8" s="18"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-285127</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>82</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="52"/>
-      <c r="B9" s="13">
-        <v>200</v>
-      </c>
+      <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
-      <c r="F9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="16">
-        <v>90</v>
-      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>-284927</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45056</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="52">
-        <v>44977</v>
-      </c>
-      <c r="B10" s="13">
-        <v>17950</v>
-      </c>
+      <c r="A10" s="52"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="14"/>
-      <c r="D10" s="18">
-        <v>1</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="16">
-        <v>320</v>
-      </c>
+      <c r="D10" s="18"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>-266977</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>45066</v>
       </c>
       <c r="J10" s="59"/>
       <c r="K10" s="59"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="52"/>
-      <c r="B11" s="17">
-        <v>50</v>
-      </c>
+      <c r="B11" s="17"/>
       <c r="C11" s="19"/>
       <c r="D11" s="18"/>
-      <c r="F11" s="15">
-        <v>45023</v>
-      </c>
-      <c r="G11" s="16">
-        <v>50000</v>
-      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>-266927</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45056</v>
+        <v>45066</v>
       </c>
       <c r="J11" s="59"/>
       <c r="K11" s="59"/>
     </row>
     <row r="12" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="52"/>
-      <c r="B12" s="17">
-        <v>5140</v>
-      </c>
+      <c r="B12" s="17"/>
       <c r="C12" s="14"/>
-      <c r="D12" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="15">
-        <v>45030</v>
-      </c>
-      <c r="G12" s="16">
-        <v>45140</v>
-      </c>
+      <c r="D12" s="18"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>-261787</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45056</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A13" s="52"/>
-      <c r="B13" s="13">
-        <v>50</v>
-      </c>
+      <c r="B13" s="13"/>
       <c r="C13" s="14"/>
-      <c r="D13" s="18">
-        <v>1</v>
-      </c>
-      <c r="F13" s="12">
-        <v>45040</v>
-      </c>
-      <c r="G13" s="13">
-        <v>50000</v>
-      </c>
+      <c r="D13" s="18"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>-261737</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45056</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="52">
-        <v>45002</v>
-      </c>
-      <c r="B14" s="17">
-        <v>64962</v>
-      </c>
-      <c r="C14" s="14">
-        <v>200</v>
-      </c>
+      <c r="A14" s="52"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="18"/>
-      <c r="F14" s="15">
-        <v>45048</v>
-      </c>
-      <c r="G14" s="16">
-        <v>50000</v>
-      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>-196575</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="52">
-        <v>45002</v>
-      </c>
-      <c r="B15" s="17">
-        <v>28288</v>
-      </c>
-      <c r="C15" s="19">
-        <v>200</v>
-      </c>
+      <c r="A15" s="52"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="18"/>
-      <c r="F15" s="15">
-        <v>45052</v>
-      </c>
-      <c r="G15" s="16">
-        <v>41185</v>
-      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>-168087</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="52">
-        <v>45016</v>
-      </c>
-      <c r="B16" s="17">
-        <v>19510</v>
-      </c>
+      <c r="A16" s="52"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="14"/>
       <c r="D16" s="18"/>
-      <c r="F16" s="15">
-        <v>45052</v>
-      </c>
-      <c r="G16" s="16">
-        <v>70000</v>
-      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>-148577</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+        <v>45066</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A17" s="52"/>
-      <c r="B17" s="13">
-        <v>50</v>
-      </c>
+      <c r="B17" s="13"/>
       <c r="C17" s="14"/>
       <c r="D17" s="18"/>
-      <c r="F17" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="16">
-        <v>5000</v>
-      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>-148527</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45056</v>
-      </c>
-      <c r="J17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="52">
-        <v>45031</v>
-      </c>
-      <c r="B18" s="13">
-        <v>88846</v>
-      </c>
+        <v>45066</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A18" s="52"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="14"/>
       <c r="D18" s="18"/>
       <c r="F18" s="15"/>
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>-59681</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="52">
-        <v>45031</v>
-      </c>
-      <c r="B19" s="13">
-        <v>21211</v>
-      </c>
+        <v>45066</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A19" s="52"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="14"/>
       <c r="D19" s="18"/>
       <c r="F19" s="15"/>
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>-38470</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+        <v>45066</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A20" s="52"/>
-      <c r="B20" s="13">
-        <v>250</v>
-      </c>
+      <c r="B20" s="13"/>
       <c r="C20" s="14"/>
-      <c r="D20" s="18" t="s">
-        <v>22</v>
-      </c>
+      <c r="D20" s="18"/>
       <c r="F20" s="15"/>
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>-38220</v>
+        <v>0</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45056</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="52">
-        <v>45048</v>
-      </c>
-      <c r="B21" s="13">
-        <v>42504</v>
-      </c>
+        <v>45066</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A21" s="52"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="14"/>
       <c r="D21" s="18"/>
       <c r="F21" s="15"/>
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>4284</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+        <v>45066</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A22" s="52"/>
       <c r="B22" s="13"/>
       <c r="C22" s="14"/>
@@ -1604,14 +1451,14 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>4284</v>
+        <v>0</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45056</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+        <v>45066</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A23" s="52"/>
       <c r="B23" s="13"/>
       <c r="C23" s="14"/>
@@ -1620,14 +1467,14 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>4284</v>
+        <v>0</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45056</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+        <v>45066</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A24" s="52"/>
       <c r="B24" s="13"/>
       <c r="C24" s="14"/>
@@ -1636,14 +1483,14 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>4284</v>
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45056</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+        <v>45066</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A25" s="52"/>
       <c r="B25" s="13"/>
       <c r="C25" s="14"/>
@@ -1652,14 +1499,14 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>4284</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45056</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+        <v>45066</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A26" s="52"/>
       <c r="B26" s="13"/>
       <c r="C26" s="14"/>
@@ -1668,14 +1515,14 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>4284</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45056</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+        <v>45066</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="52"/>
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
@@ -1684,14 +1531,14 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>4284</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45056</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+        <v>45066</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A28" s="52"/>
       <c r="B28" s="13"/>
       <c r="C28" s="14"/>
@@ -1700,14 +1547,14 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>4284</v>
+        <v>0</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45056</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+        <v>45066</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A29" s="52"/>
       <c r="B29" s="13"/>
       <c r="C29" s="14"/>
@@ -1716,14 +1563,14 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>4284</v>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45056</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+        <v>45066</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A30" s="52"/>
       <c r="B30" s="13"/>
       <c r="C30" s="14"/>
@@ -1732,14 +1579,14 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>4284</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45056</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+        <v>45066</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A31" s="52"/>
       <c r="B31" s="13"/>
       <c r="C31" s="14"/>
@@ -1748,14 +1595,14 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>4284</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45056</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="16.5" thickTop="1" thickBot="1">
+        <v>45066</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A32" s="52"/>
       <c r="B32" s="13"/>
       <c r="C32" s="14"/>
@@ -1764,11 +1611,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>4284</v>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45056</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1780,11 +1627,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>4284</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45056</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1797,11 +1644,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>4284</v>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45056</v>
+        <v>45066</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1822,7 +1669,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>423786</v>
+        <v>0</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1830,7 +1677,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>419502</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1853,7 +1700,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>4284</v>
+        <v>0</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -1099,7 +1099,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1167,35 +1167,51 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
+      <c r="A5" s="7">
+        <v>45062</v>
+      </c>
+      <c r="B5" s="8">
+        <v>25427</v>
+      </c>
+      <c r="C5" s="9">
+        <v>100</v>
+      </c>
       <c r="D5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7">
+        <v>45090</v>
+      </c>
+      <c r="G5" s="8">
+        <v>50000</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>0</v>
+        <v>-24473</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>45066</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="50"/>
+      <c r="A6" s="7">
+        <v>45080</v>
+      </c>
+      <c r="B6" s="8">
+        <v>36081</v>
+      </c>
+      <c r="C6" s="50">
+        <v>50</v>
+      </c>
       <c r="D6" s="9"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>0</v>
+        <v>11658</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>45066</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
@@ -1207,11 +1223,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>0</v>
+        <v>11658</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1223,11 +1239,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>0</v>
+        <v>11658</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1239,11 +1255,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>0</v>
+        <v>11658</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1255,11 +1271,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11658</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
       <c r="J10" s="59"/>
       <c r="K10" s="59"/>
@@ -1273,11 +1289,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11658</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
       <c r="J11" s="59"/>
       <c r="K11" s="59"/>
@@ -1291,11 +1307,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11658</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1307,11 +1323,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11658</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1323,11 +1339,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11658</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1339,11 +1355,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11658</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1355,11 +1371,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11658</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1371,11 +1387,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11658</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1387,11 +1403,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11658</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1403,11 +1419,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11658</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1419,11 +1435,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11658</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1435,11 +1451,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11658</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1451,11 +1467,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11658</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1467,11 +1483,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11658</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1483,11 +1499,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11658</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1499,11 +1515,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11658</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1515,11 +1531,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11658</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1531,11 +1547,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11658</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1547,11 +1563,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11658</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1563,11 +1579,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11658</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1579,11 +1595,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11658</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1595,11 +1611,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11658</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1611,11 +1627,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11658</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1627,11 +1643,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>0</v>
+        <v>11658</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1644,11 +1660,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11658</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45066</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1669,7 +1685,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>0</v>
+        <v>61658</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1677,7 +1693,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1700,7 +1716,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>0</v>
+        <v>11658</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -1098,8 +1098,8 @@
   </sheetPr>
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection sqref="A1:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
@@ -1211,23 +1211,29 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="9"/>
+      <c r="A7" s="49">
+        <v>45093</v>
+      </c>
+      <c r="B7" s="16">
+        <v>44703</v>
+      </c>
+      <c r="C7" s="9">
+        <v>100</v>
+      </c>
       <c r="D7" s="51"/>
       <c r="F7" s="15"/>
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>11658</v>
+        <v>56461</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45091</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1239,11 +1245,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>11658</v>
+        <v>56461</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1255,11 +1261,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>11658</v>
+        <v>56461</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1271,11 +1277,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>11658</v>
+        <v>56461</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
       <c r="J10" s="59"/>
       <c r="K10" s="59"/>
@@ -1289,11 +1295,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>11658</v>
+        <v>56461</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
       <c r="J11" s="59"/>
       <c r="K11" s="59"/>
@@ -1307,11 +1313,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>11658</v>
+        <v>56461</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1323,11 +1329,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>11658</v>
+        <v>56461</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1339,11 +1345,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>11658</v>
+        <v>56461</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1355,11 +1361,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>11658</v>
+        <v>56461</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1371,11 +1377,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>11658</v>
+        <v>56461</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1387,11 +1393,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>11658</v>
+        <v>56461</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1403,11 +1409,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>11658</v>
+        <v>56461</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1419,11 +1425,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>11658</v>
+        <v>56461</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1435,11 +1441,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>11658</v>
+        <v>56461</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1451,11 +1457,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>11658</v>
+        <v>56461</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1467,11 +1473,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>11658</v>
+        <v>56461</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1483,11 +1489,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>11658</v>
+        <v>56461</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1499,11 +1505,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>11658</v>
+        <v>56461</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1515,11 +1521,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>11658</v>
+        <v>56461</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1531,11 +1537,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>11658</v>
+        <v>56461</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1547,11 +1553,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>11658</v>
+        <v>56461</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1563,11 +1569,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>11658</v>
+        <v>56461</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1579,11 +1585,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>11658</v>
+        <v>56461</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1595,11 +1601,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>11658</v>
+        <v>56461</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1611,11 +1617,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>11658</v>
+        <v>56461</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1627,11 +1633,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>11658</v>
+        <v>56461</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1643,11 +1649,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>11658</v>
+        <v>56461</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1660,11 +1666,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>11658</v>
+        <v>56461</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45091</v>
+        <v>45098</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1685,7 +1691,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>61658</v>
+        <v>106461</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1716,7 +1722,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>11658</v>
+        <v>56461</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>DATE</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>SADHNA PHOTO</t>
+  </si>
+  <si>
+    <t>BLOCKS</t>
+  </si>
+  <si>
+    <t>TOYS</t>
   </si>
 </sst>
 </file>
@@ -1098,8 +1104,8 @@
   </sheetPr>
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection sqref="A1:I38"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1168,72 +1174,64 @@
     </row>
     <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="7">
-        <v>45062</v>
+        <v>45100</v>
       </c>
       <c r="B5" s="8">
-        <v>25427</v>
+        <v>23640</v>
       </c>
       <c r="C5" s="9">
-        <v>100</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="F5" s="7">
-        <v>45090</v>
-      </c>
-      <c r="G5" s="8">
-        <v>50000</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-24473</v>
+        <v>23690</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="7">
-        <v>45080</v>
+        <v>45100</v>
       </c>
       <c r="B6" s="8">
-        <v>36081</v>
-      </c>
-      <c r="C6" s="50">
-        <v>50</v>
-      </c>
-      <c r="D6" s="9"/>
+        <v>72808</v>
+      </c>
+      <c r="C6" s="50"/>
+      <c r="D6" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>11658</v>
+        <v>96498</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49">
-        <v>45093</v>
-      </c>
-      <c r="B7" s="16">
-        <v>44703</v>
-      </c>
-      <c r="C7" s="9">
-        <v>100</v>
-      </c>
+      <c r="A7" s="49"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="51"/>
       <c r="F7" s="15"/>
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>56461</v>
+        <v>96498</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>5</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1245,11 +1243,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>56461</v>
+        <v>96498</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1261,11 +1259,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>56461</v>
+        <v>96498</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1277,11 +1275,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>56461</v>
+        <v>96498</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
       <c r="J10" s="59"/>
       <c r="K10" s="59"/>
@@ -1295,11 +1293,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>56461</v>
+        <v>96498</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
       <c r="J11" s="59"/>
       <c r="K11" s="59"/>
@@ -1313,11 +1311,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>56461</v>
+        <v>96498</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1329,11 +1327,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>56461</v>
+        <v>96498</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1345,11 +1343,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>56461</v>
+        <v>96498</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1361,11 +1359,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>56461</v>
+        <v>96498</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1377,11 +1375,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>56461</v>
+        <v>96498</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1393,11 +1391,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>56461</v>
+        <v>96498</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1409,11 +1407,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>56461</v>
+        <v>96498</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1425,11 +1423,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>56461</v>
+        <v>96498</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1441,11 +1439,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>56461</v>
+        <v>96498</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1457,11 +1455,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>56461</v>
+        <v>96498</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1473,11 +1471,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>56461</v>
+        <v>96498</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1489,11 +1487,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>56461</v>
+        <v>96498</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1505,11 +1503,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>56461</v>
+        <v>96498</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1521,11 +1519,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>56461</v>
+        <v>96498</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1537,11 +1535,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>56461</v>
+        <v>96498</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1553,11 +1551,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>56461</v>
+        <v>96498</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1569,11 +1567,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>56461</v>
+        <v>96498</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1585,11 +1583,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>56461</v>
+        <v>96498</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1601,11 +1599,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>56461</v>
+        <v>96498</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1617,11 +1615,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>56461</v>
+        <v>96498</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1633,11 +1631,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>56461</v>
+        <v>96498</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1649,11 +1647,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>56461</v>
+        <v>96498</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1666,11 +1664,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>56461</v>
+        <v>96498</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45098</v>
+        <v>45112</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1691,7 +1689,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>106461</v>
+        <v>96498</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1699,7 +1697,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1722,7 +1720,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>56461</v>
+        <v>96498</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -1105,7 +1105,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1185,15 +1185,19 @@
       <c r="D5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7">
+        <v>44946</v>
+      </c>
+      <c r="G5" s="8">
+        <v>50000</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>23690</v>
+        <v>-26310</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
@@ -1203,7 +1207,9 @@
       <c r="B6" s="8">
         <v>72808</v>
       </c>
-      <c r="C6" s="50"/>
+      <c r="C6" s="50">
+        <v>300</v>
+      </c>
       <c r="D6" s="9" t="s">
         <v>17</v>
       </c>
@@ -1211,59 +1217,73 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>96498</v>
+        <v>46798</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="49">
+        <v>45115</v>
+      </c>
+      <c r="B7" s="16">
+        <v>35684</v>
+      </c>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
       <c r="F7" s="15"/>
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>96498</v>
+        <v>82482</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45112</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="19"/>
+      <c r="A8" s="15">
+        <v>45110</v>
+      </c>
+      <c r="B8" s="16">
+        <v>4980</v>
+      </c>
+      <c r="C8" s="19">
+        <v>50</v>
+      </c>
       <c r="D8" s="18"/>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>96498</v>
+        <v>87512</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45112</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="52"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="52">
+        <v>45121</v>
+      </c>
+      <c r="B9" s="13">
+        <v>27260</v>
+      </c>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>96498</v>
+        <v>114772</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45112</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1275,11 +1295,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>96498</v>
+        <v>114772</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45128</v>
       </c>
       <c r="J10" s="59"/>
       <c r="K10" s="59"/>
@@ -1293,11 +1313,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>96498</v>
+        <v>114772</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45128</v>
       </c>
       <c r="J11" s="59"/>
       <c r="K11" s="59"/>
@@ -1311,11 +1331,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>96498</v>
+        <v>114772</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45128</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1327,11 +1347,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>96498</v>
+        <v>114772</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45128</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1343,11 +1363,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>96498</v>
+        <v>114772</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45128</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1359,11 +1379,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>96498</v>
+        <v>114772</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45128</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1375,11 +1395,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>96498</v>
+        <v>114772</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45128</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1391,11 +1411,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>96498</v>
+        <v>114772</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45128</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1407,11 +1427,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>96498</v>
+        <v>114772</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45128</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1423,11 +1443,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>96498</v>
+        <v>114772</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45128</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1439,11 +1459,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>96498</v>
+        <v>114772</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45128</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1455,11 +1475,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>96498</v>
+        <v>114772</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45112</v>
+        <v>45128</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1471,11 +1491,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>96498</v>
+        <v>114772</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45128</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1487,11 +1507,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>96498</v>
+        <v>114772</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45128</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1503,11 +1523,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>96498</v>
+        <v>114772</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45128</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1519,11 +1539,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>96498</v>
+        <v>114772</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45128</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1535,11 +1555,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>96498</v>
+        <v>114772</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45128</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1551,11 +1571,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>96498</v>
+        <v>114772</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45128</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1567,11 +1587,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>96498</v>
+        <v>114772</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45128</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1583,11 +1603,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>96498</v>
+        <v>114772</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45128</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1599,11 +1619,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>96498</v>
+        <v>114772</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45128</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1615,11 +1635,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>96498</v>
+        <v>114772</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45128</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1631,11 +1651,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>96498</v>
+        <v>114772</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45128</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1647,11 +1667,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>96498</v>
+        <v>114772</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45112</v>
+        <v>45128</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1664,11 +1684,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>96498</v>
+        <v>114772</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45112</v>
+        <v>45128</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1689,7 +1709,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>96498</v>
+        <v>164772</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1697,7 +1717,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1720,7 +1740,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>96498</v>
+        <v>114772</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -1105,7 +1105,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45128</v>
+        <v>45133</v>
       </c>
       <c r="J10" s="59"/>
       <c r="K10" s="59"/>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45128</v>
+        <v>45133</v>
       </c>
       <c r="J11" s="59"/>
       <c r="K11" s="59"/>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45128</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45128</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45128</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45128</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45128</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1415,7 +1415,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45128</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45128</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45128</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45128</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45128</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45128</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45128</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45128</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45128</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45128</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45128</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45128</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45128</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45128</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45128</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1655,7 +1655,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45128</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45128</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45128</v>
+        <v>45133</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -1105,7 +1105,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1186,18 +1186,18 @@
         <v>16</v>
       </c>
       <c r="F5" s="7">
-        <v>44946</v>
+        <v>45127</v>
       </c>
       <c r="G5" s="8">
         <v>50000</v>
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-26310</v>
+        <v>-76310</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
@@ -1213,15 +1213,19 @@
       <c r="D6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="7">
+        <v>45133</v>
+      </c>
+      <c r="G6" s="8">
+        <v>50000</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>46798</v>
+        <v>-3202</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
@@ -1237,11 +1241,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>82482</v>
+        <v>32482</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1259,11 +1263,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>87512</v>
+        <v>37512</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1273,33 +1277,41 @@
       <c r="B9" s="13">
         <v>27260</v>
       </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="14">
+        <v>50</v>
+      </c>
       <c r="D9" s="18"/>
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>114772</v>
+        <v>64822</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="52"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
+      <c r="A10" s="52">
+        <v>45135</v>
+      </c>
+      <c r="B10" s="13">
+        <v>5640</v>
+      </c>
+      <c r="C10" s="14">
+        <v>50</v>
+      </c>
       <c r="D10" s="18"/>
       <c r="F10" s="15"/>
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>114772</v>
+        <v>70512</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>7</v>
       </c>
       <c r="J10" s="59"/>
       <c r="K10" s="59"/>
@@ -1313,11 +1325,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>114772</v>
+        <v>70512</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45142</v>
       </c>
       <c r="J11" s="59"/>
       <c r="K11" s="59"/>
@@ -1331,11 +1343,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>114772</v>
+        <v>70512</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45142</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1347,11 +1359,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>114772</v>
+        <v>70512</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45142</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1363,11 +1375,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>114772</v>
+        <v>70512</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45142</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1379,11 +1391,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>114772</v>
+        <v>70512</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45142</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1395,11 +1407,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>114772</v>
+        <v>70512</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45142</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1411,11 +1423,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>114772</v>
+        <v>70512</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45142</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1427,11 +1439,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>114772</v>
+        <v>70512</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45142</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1443,11 +1455,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>114772</v>
+        <v>70512</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45142</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1459,11 +1471,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>114772</v>
+        <v>70512</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45142</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1475,11 +1487,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>114772</v>
+        <v>70512</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45133</v>
+        <v>45142</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1491,11 +1503,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>114772</v>
+        <v>70512</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45142</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1507,11 +1519,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>114772</v>
+        <v>70512</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45142</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1523,11 +1535,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>114772</v>
+        <v>70512</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45142</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1539,11 +1551,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>114772</v>
+        <v>70512</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45142</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1555,11 +1567,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>114772</v>
+        <v>70512</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45142</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1571,11 +1583,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>114772</v>
+        <v>70512</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45142</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1587,11 +1599,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>114772</v>
+        <v>70512</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45142</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1603,11 +1615,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>114772</v>
+        <v>70512</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45142</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,11 +1631,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>114772</v>
+        <v>70512</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45142</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1635,11 +1647,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>114772</v>
+        <v>70512</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45142</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1651,11 +1663,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>114772</v>
+        <v>70512</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45142</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1667,11 +1679,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>114772</v>
+        <v>70512</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45133</v>
+        <v>45142</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1684,11 +1696,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>114772</v>
+        <v>70512</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45133</v>
+        <v>45142</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1709,7 +1721,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>164772</v>
+        <v>170512</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1717,7 +1729,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1740,7 +1752,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>114772</v>
+        <v>70512</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1104,8 +1104,8 @@
   </sheetPr>
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1311,25 +1311,29 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="J10" s="59"/>
       <c r="K10" s="59"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="52"/>
-      <c r="B11" s="17"/>
+      <c r="A11" s="52">
+        <v>45145</v>
+      </c>
+      <c r="B11" s="17">
+        <v>17610</v>
+      </c>
       <c r="C11" s="19"/>
       <c r="D11" s="18"/>
       <c r="F11" s="15"/>
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>70512</v>
+        <v>88122</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45142</v>
+        <v>9</v>
       </c>
       <c r="J11" s="59"/>
       <c r="K11" s="59"/>
@@ -1343,11 +1347,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>70512</v>
+        <v>88122</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45142</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1359,11 +1363,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>70512</v>
+        <v>88122</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45142</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1375,11 +1379,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>70512</v>
+        <v>88122</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45142</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1391,11 +1395,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>70512</v>
+        <v>88122</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45142</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1407,11 +1411,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>70512</v>
+        <v>88122</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45142</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1423,11 +1427,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>70512</v>
+        <v>88122</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45142</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1439,11 +1443,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>70512</v>
+        <v>88122</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45142</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1455,11 +1459,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>70512</v>
+        <v>88122</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45142</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1471,11 +1475,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>70512</v>
+        <v>88122</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45142</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1487,11 +1491,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>70512</v>
+        <v>88122</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45142</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1503,11 +1507,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>70512</v>
+        <v>88122</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45142</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1519,11 +1523,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>70512</v>
+        <v>88122</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45142</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1535,11 +1539,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>70512</v>
+        <v>88122</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45142</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1551,11 +1555,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>70512</v>
+        <v>88122</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45142</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1567,11 +1571,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>70512</v>
+        <v>88122</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45142</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1583,11 +1587,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>70512</v>
+        <v>88122</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45142</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1599,11 +1603,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>70512</v>
+        <v>88122</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45142</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1615,11 +1619,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>70512</v>
+        <v>88122</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45142</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1631,11 +1635,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>70512</v>
+        <v>88122</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45142</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1647,11 +1651,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>70512</v>
+        <v>88122</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45142</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1663,11 +1667,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>70512</v>
+        <v>88122</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45142</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1679,11 +1683,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>70512</v>
+        <v>88122</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45142</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1696,11 +1700,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>70512</v>
+        <v>88122</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45142</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1721,7 +1725,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>170512</v>
+        <v>188122</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1752,7 +1756,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>70512</v>
+        <v>88122</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>DATE</t>
   </si>
@@ -66,10 +66,7 @@
     <t>SADHNA PHOTO</t>
   </si>
   <si>
-    <t>BLOCKS</t>
-  </si>
-  <si>
-    <t>TOYS</t>
+    <t>TRANSFER TILL 14-OCT</t>
   </si>
 </sst>
 </file>
@@ -1104,8 +1101,8 @@
   </sheetPr>
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I38"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1173,167 +1170,121 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7">
-        <v>45100</v>
-      </c>
+      <c r="A5" s="7"/>
       <c r="B5" s="8">
-        <v>23640</v>
-      </c>
-      <c r="C5" s="9">
-        <v>50</v>
-      </c>
+        <v>282636</v>
+      </c>
+      <c r="C5" s="9"/>
       <c r="D5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="7">
-        <v>45127</v>
-      </c>
-      <c r="G5" s="8">
-        <v>50000</v>
-      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-76310</v>
+        <v>282636</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>54</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7">
-        <v>45100</v>
-      </c>
-      <c r="B6" s="8">
-        <v>72808</v>
-      </c>
-      <c r="C6" s="50">
-        <v>300</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="7">
-        <v>45133</v>
-      </c>
-      <c r="G6" s="8">
-        <v>50000</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="9"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-3202</v>
+        <v>282636</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>54</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49">
-        <v>45115</v>
-      </c>
-      <c r="B7" s="16">
-        <v>35684</v>
-      </c>
+      <c r="A7" s="49"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
       <c r="F7" s="15"/>
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>32482</v>
+        <v>282636</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>39</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15">
-        <v>45110</v>
-      </c>
-      <c r="B8" s="16">
-        <v>4980</v>
-      </c>
-      <c r="C8" s="19">
-        <v>50</v>
-      </c>
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="18"/>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>37512</v>
+        <v>282636</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="52">
-        <v>45121</v>
-      </c>
-      <c r="B9" s="13">
-        <v>27260</v>
-      </c>
-      <c r="C9" s="14">
-        <v>50</v>
-      </c>
+      <c r="A9" s="52"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="18"/>
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>64822</v>
+        <v>282636</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>33</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="52">
-        <v>45135</v>
-      </c>
-      <c r="B10" s="13">
-        <v>5640</v>
-      </c>
-      <c r="C10" s="14">
-        <v>50</v>
-      </c>
+      <c r="A10" s="52"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="18"/>
       <c r="F10" s="15"/>
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>70512</v>
+        <v>282636</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>45219</v>
       </c>
       <c r="J10" s="59"/>
       <c r="K10" s="59"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="52">
-        <v>45145</v>
-      </c>
-      <c r="B11" s="17">
-        <v>17610</v>
-      </c>
+      <c r="A11" s="52"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="19"/>
       <c r="D11" s="18"/>
       <c r="F11" s="15"/>
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>88122</v>
+        <v>282636</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>45219</v>
       </c>
       <c r="J11" s="59"/>
       <c r="K11" s="59"/>
@@ -1347,11 +1298,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>88122</v>
+        <v>282636</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1363,11 +1314,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>88122</v>
+        <v>282636</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1379,11 +1330,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>88122</v>
+        <v>282636</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1395,11 +1346,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>88122</v>
+        <v>282636</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1411,11 +1362,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>88122</v>
+        <v>282636</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1427,11 +1378,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>88122</v>
+        <v>282636</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1443,11 +1394,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>88122</v>
+        <v>282636</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1459,11 +1410,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>88122</v>
+        <v>282636</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1475,11 +1426,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>88122</v>
+        <v>282636</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1491,11 +1442,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>88122</v>
+        <v>282636</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45154</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1507,11 +1458,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>88122</v>
+        <v>282636</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1523,11 +1474,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>88122</v>
+        <v>282636</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1539,11 +1490,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>88122</v>
+        <v>282636</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1555,11 +1506,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>88122</v>
+        <v>282636</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1571,11 +1522,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>88122</v>
+        <v>282636</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1587,11 +1538,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>88122</v>
+        <v>282636</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1603,11 +1554,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>88122</v>
+        <v>282636</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,11 +1570,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>88122</v>
+        <v>282636</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1635,11 +1586,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>88122</v>
+        <v>282636</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1651,11 +1602,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>88122</v>
+        <v>282636</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1667,11 +1618,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>88122</v>
+        <v>282636</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1683,11 +1634,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>88122</v>
+        <v>282636</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45154</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1700,11 +1651,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>88122</v>
+        <v>282636</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45154</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1725,7 +1676,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>188122</v>
+        <v>282636</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1733,7 +1684,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1756,7 +1707,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>88122</v>
+        <v>282636</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -1102,7 +1102,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1178,47 +1178,63 @@
       <c r="D5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7">
+        <v>45231</v>
+      </c>
+      <c r="G5" s="8">
+        <v>50000</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>282636</v>
+        <v>232636</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>45219</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="50"/>
+      <c r="A6" s="7">
+        <v>45230</v>
+      </c>
+      <c r="B6" s="8">
+        <v>54899</v>
+      </c>
+      <c r="C6" s="50">
+        <v>150</v>
+      </c>
       <c r="D6" s="9"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>282636</v>
+        <v>287685</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>45219</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="9"/>
+      <c r="A7" s="49">
+        <v>45231</v>
+      </c>
+      <c r="B7" s="16">
+        <v>44444</v>
+      </c>
+      <c r="C7" s="9">
+        <v>100</v>
+      </c>
       <c r="D7" s="51"/>
       <c r="F7" s="15"/>
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>282636</v>
+        <v>332229</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45219</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1230,11 +1246,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>282636</v>
+        <v>332229</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45219</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1246,11 +1262,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>282636</v>
+        <v>332229</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45219</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1262,11 +1278,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>282636</v>
+        <v>332229</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45219</v>
+        <v>45240</v>
       </c>
       <c r="J10" s="59"/>
       <c r="K10" s="59"/>
@@ -1280,11 +1296,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>282636</v>
+        <v>332229</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45219</v>
+        <v>45240</v>
       </c>
       <c r="J11" s="59"/>
       <c r="K11" s="59"/>
@@ -1298,11 +1314,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>282636</v>
+        <v>332229</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45219</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1314,11 +1330,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>282636</v>
+        <v>332229</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45219</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,11 +1346,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>282636</v>
+        <v>332229</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45219</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,11 +1362,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>282636</v>
+        <v>332229</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45219</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,11 +1378,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>282636</v>
+        <v>332229</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45219</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,11 +1394,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>282636</v>
+        <v>332229</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45219</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,11 +1410,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>282636</v>
+        <v>332229</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45219</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,11 +1426,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>282636</v>
+        <v>332229</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45219</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,11 +1442,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>282636</v>
+        <v>332229</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45219</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,11 +1458,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>282636</v>
+        <v>332229</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45219</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,11 +1474,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>282636</v>
+        <v>332229</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45219</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,11 +1490,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>282636</v>
+        <v>332229</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45219</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,11 +1506,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>282636</v>
+        <v>332229</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45219</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,11 +1522,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>282636</v>
+        <v>332229</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45219</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,11 +1538,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>282636</v>
+        <v>332229</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45219</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,11 +1554,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>282636</v>
+        <v>332229</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45219</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,11 +1570,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>282636</v>
+        <v>332229</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45219</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,11 +1586,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>282636</v>
+        <v>332229</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45219</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,11 +1602,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>282636</v>
+        <v>332229</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45219</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,11 +1618,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>282636</v>
+        <v>332229</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45219</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1618,11 +1634,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>282636</v>
+        <v>332229</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45219</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1634,11 +1650,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>282636</v>
+        <v>332229</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45219</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1651,11 +1667,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>282636</v>
+        <v>332229</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45219</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1676,7 +1692,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>282636</v>
+        <v>382229</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1684,7 +1700,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1707,7 +1723,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>282636</v>
+        <v>332229</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/TOY GALLERY.xlsx
+++ b/IMPORTANT/TOY GALLERY.xlsx
@@ -1190,7 +1190,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>45240</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>10</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17.25" thickTop="1" thickBot="1">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>9</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45240</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45240</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45240</v>
+        <v>45337</v>
       </c>
       <c r="J10" s="59"/>
       <c r="K10" s="59"/>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45240</v>
+        <v>45337</v>
       </c>
       <c r="J11" s="59"/>
       <c r="K11" s="59"/>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45240</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45240</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45240</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45240</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45240</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45240</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45240</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45240</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45240</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45240</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45240</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1494,7 +1494,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45240</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45240</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45240</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45240</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1558,7 +1558,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45240</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45240</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45240</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45240</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45240</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45240</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45240</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45240</v>
+        <v>45337</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
